--- a/BackTest/2019-11-18 BackTest ICX.xlsx
+++ b/BackTest/2019-11-18 BackTest ICX.xlsx
@@ -451,20 +451,14 @@
         <v>217.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>220</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>217</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>217</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>219.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>217</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -581,11 +563,7 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -620,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -659,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -694,15 +664,11 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -737,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -772,15 +734,11 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -811,15 +769,11 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -850,15 +804,11 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -889,16 +839,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -926,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -961,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1031,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1066,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1486,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1626,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1766,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1801,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1871,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1976,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2011,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2046,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -4038,14 +3986,20 @@
         <v>215.5</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>216</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4073,14 +4027,20 @@
         <v>215</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>215</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4115,7 +4075,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4150,7 +4114,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4185,7 +4153,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4220,7 +4192,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4255,7 +4231,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4290,7 +4270,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4325,7 +4309,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4360,7 +4348,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4395,7 +4387,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4430,7 +4426,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4465,7 +4465,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4500,7 +4504,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4535,7 +4543,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4570,7 +4582,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4605,7 +4621,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4640,7 +4660,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4675,7 +4699,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4710,7 +4738,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4777,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4780,7 +4816,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4815,7 +4855,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4850,7 +4894,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4885,7 +4933,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4920,7 +4972,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4955,7 +5011,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4990,7 +5050,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5025,7 +5089,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5060,7 +5128,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5095,7 +5167,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5130,7 +5206,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5165,7 +5245,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5200,7 +5284,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5235,7 +5323,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5270,7 +5362,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5305,7 +5401,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5340,7 +5440,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5375,7 +5479,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5410,7 +5518,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5445,7 +5557,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5480,7 +5596,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5515,7 +5635,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5550,7 +5674,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5585,7 +5713,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5620,7 +5752,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5655,7 +5791,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5690,7 +5830,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5725,7 +5869,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5760,7 +5908,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5795,7 +5947,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5830,7 +5986,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5865,7 +6025,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6064,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5935,7 +6103,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5970,7 +6142,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6005,7 +6181,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6040,7 +6220,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6075,7 +6259,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6110,7 +6298,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6145,7 +6337,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6180,7 +6376,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6215,7 +6415,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6250,7 +6454,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6285,7 +6493,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6320,7 +6532,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6355,7 +6571,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6390,7 +6610,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6425,7 +6649,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6460,7 +6688,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6495,7 +6727,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6530,7 +6766,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6565,7 +6805,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6593,18 +6837,16 @@
         <v>204.5</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>205</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M176" t="n">
@@ -6634,14 +6876,12 @@
         <v>204.5</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>203</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -6675,14 +6915,12 @@
         <v>205.5</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>205</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -6716,14 +6954,12 @@
         <v>205.5</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>206</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -6757,14 +6993,12 @@
         <v>206.5</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>206</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -6804,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
@@ -6845,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
@@ -6886,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
@@ -6921,14 +7155,12 @@
         <v>208</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>208</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -6962,14 +7194,12 @@
         <v>207.5</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>207</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
@@ -7003,14 +7233,12 @@
         <v>207.5</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>206</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
@@ -7050,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
@@ -7091,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
@@ -7173,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
@@ -7290,14 +7518,12 @@
         <v>206</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>207</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
@@ -7331,14 +7557,12 @@
         <v>207</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>207</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -7372,14 +7596,12 @@
         <v>205.5</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>206</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
@@ -7413,14 +7635,12 @@
         <v>204</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>204</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
@@ -7495,14 +7715,12 @@
         <v>204.5</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>204</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
@@ -7788,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
@@ -7946,14 +8164,12 @@
         <v>205</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>205</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
@@ -7987,14 +8203,12 @@
         <v>205</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>205</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
@@ -8028,14 +8242,12 @@
         <v>205</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>205</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
@@ -8069,14 +8281,12 @@
         <v>207</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>209</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -8110,14 +8320,12 @@
         <v>209</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>209</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -8151,14 +8359,12 @@
         <v>209</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>209</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
@@ -8192,14 +8398,12 @@
         <v>209</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>209</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
@@ -8233,14 +8437,12 @@
         <v>209</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>209</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
@@ -8274,14 +8476,12 @@
         <v>209</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>209</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -8315,14 +8515,12 @@
         <v>209</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>209</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
@@ -8356,14 +8554,12 @@
         <v>209</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>207</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
@@ -8397,14 +8593,12 @@
         <v>209</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>209</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
@@ -8438,14 +8632,12 @@
         <v>209</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>209</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
@@ -8479,14 +8671,12 @@
         <v>209</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>209</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
@@ -8520,14 +8710,12 @@
         <v>209</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>209</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
@@ -8561,14 +8749,12 @@
         <v>209</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>209</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
@@ -8602,14 +8788,12 @@
         <v>208</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>207</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
@@ -8643,14 +8827,12 @@
         <v>206</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>207</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
@@ -8684,14 +8866,12 @@
         <v>207</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>206</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
@@ -8725,14 +8905,12 @@
         <v>209</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>209</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
@@ -8766,14 +8944,12 @@
         <v>209.5</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>209</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
@@ -8807,14 +8983,12 @@
         <v>209</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>208</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
@@ -8848,14 +9022,12 @@
         <v>208.5</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>208</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
@@ -8889,14 +9061,12 @@
         <v>209</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>209</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
@@ -8930,14 +9100,12 @@
         <v>209.5</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>210</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
@@ -8971,14 +9139,12 @@
         <v>210</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>210</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
@@ -9012,14 +9178,12 @@
         <v>209.5</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>210</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
@@ -9131,14 +9295,12 @@
         <v>209</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>209</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
@@ -9172,14 +9334,12 @@
         <v>209</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>209</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
@@ -9213,14 +9373,12 @@
         <v>207.5</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>208</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
@@ -9254,14 +9412,12 @@
         <v>206</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>207</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
@@ -9295,14 +9451,12 @@
         <v>206</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>206</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
@@ -9336,14 +9490,12 @@
         <v>206.5</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>206</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
@@ -9377,14 +9529,12 @@
         <v>207</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>207</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
@@ -9418,14 +9568,12 @@
         <v>206</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>205</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
@@ -9459,14 +9607,12 @@
         <v>205</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>205</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
@@ -9500,14 +9646,12 @@
         <v>206</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>205</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
@@ -9541,14 +9685,12 @@
         <v>206</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>205</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
@@ -9582,14 +9724,12 @@
         <v>205</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>205</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
@@ -9623,14 +9763,12 @@
         <v>204.5</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>204</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
@@ -9664,14 +9802,12 @@
         <v>204.5</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>205</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
@@ -9705,14 +9841,12 @@
         <v>205</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>205</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
@@ -9746,14 +9880,12 @@
         <v>206</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>205</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
@@ -9787,14 +9919,12 @@
         <v>207</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>207</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
@@ -9828,14 +9958,12 @@
         <v>207</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>205</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
@@ -9869,14 +9997,12 @@
         <v>206</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>205</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
@@ -9910,14 +10036,12 @@
         <v>205</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>205</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
@@ -9951,14 +10075,12 @@
         <v>204.5</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>205</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
@@ -9992,14 +10114,12 @@
         <v>203.5</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>203</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
@@ -10033,14 +10153,12 @@
         <v>203.5</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>204</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
@@ -10074,14 +10192,12 @@
         <v>204</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>204</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
@@ -10121,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
@@ -10197,14 +10313,12 @@
         <v>206</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>205</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
@@ -10238,14 +10352,12 @@
         <v>206</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>207</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
@@ -10279,14 +10391,12 @@
         <v>207</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>207</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
@@ -10320,14 +10430,12 @@
         <v>206</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>206</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
@@ -10361,14 +10469,12 @@
         <v>206</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>205</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
@@ -10402,14 +10508,12 @@
         <v>207.5</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>207</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
@@ -10443,14 +10547,12 @@
         <v>209</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>209</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
@@ -10484,14 +10586,12 @@
         <v>209.5</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>209</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
@@ -10525,14 +10625,12 @@
         <v>208.5</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>208</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
@@ -10566,14 +10664,12 @@
         <v>208.5</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>208</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
@@ -10607,14 +10703,12 @@
         <v>209</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>209</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
@@ -10648,14 +10742,12 @@
         <v>207.5</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>208</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
@@ -10689,14 +10781,12 @@
         <v>206</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>206</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
@@ -10730,14 +10820,12 @@
         <v>206</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>207</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
@@ -10771,14 +10859,12 @@
         <v>206.5</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>207</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
@@ -10812,14 +10898,12 @@
         <v>208</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>209</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
@@ -10853,14 +10937,12 @@
         <v>208.5</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>208</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
@@ -10894,14 +10976,12 @@
         <v>209.5</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>208</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
@@ -10935,14 +11015,12 @@
         <v>210.5</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>210</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
@@ -10976,14 +11054,12 @@
         <v>211</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>210</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
@@ -11017,14 +11093,12 @@
         <v>212</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>212</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>

--- a/BackTest/2019-11-18 BackTest ICX.xlsx
+++ b/BackTest/2019-11-18 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:M294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C2" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D2" t="n">
         <v>220</v>
       </c>
       <c r="E2" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>82120.4172</v>
+        <v>79995.98480000001</v>
       </c>
       <c r="G2" t="n">
-        <v>217.5</v>
+        <v>193.1833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C3" t="n">
         <v>217</v>
       </c>
       <c r="D3" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E3" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F3" t="n">
-        <v>33258.2084</v>
+        <v>82120.4172</v>
       </c>
       <c r="G3" t="n">
-        <v>217</v>
+        <v>193.5833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>217</v>
       </c>
       <c r="C4" t="n">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D4" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E4" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F4" t="n">
-        <v>114843.4382</v>
+        <v>33258.2084</v>
       </c>
       <c r="G4" t="n">
-        <v>219.5</v>
+        <v>193.9833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C5" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D5" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E5" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F5" t="n">
-        <v>96803.0436</v>
+        <v>114843.4382</v>
       </c>
       <c r="G5" t="n">
-        <v>223</v>
+        <v>194.4333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C6" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D6" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E6" t="n">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F6" t="n">
-        <v>97187.2473877193</v>
+        <v>96803.0436</v>
       </c>
       <c r="G6" t="n">
-        <v>225.5</v>
+        <v>194.9333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" t="n">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D7" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E7" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F7" t="n">
-        <v>63382.9767</v>
+        <v>97187.2473877193</v>
       </c>
       <c r="G7" t="n">
-        <v>223.5</v>
+        <v>195.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,28 +643,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>226</v>
+      </c>
+      <c r="C8" t="n">
         <v>220</v>
       </c>
-      <c r="C8" t="n">
-        <v>224</v>
-      </c>
       <c r="D8" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E8" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F8" t="n">
-        <v>68310.7369</v>
+        <v>63382.9767</v>
       </c>
       <c r="G8" t="n">
-        <v>222</v>
+        <v>195.9666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C9" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D9" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E9" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F9" t="n">
-        <v>22505.7455</v>
+        <v>68310.7369</v>
       </c>
       <c r="G9" t="n">
-        <v>222.5</v>
+        <v>196.4666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C10" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D10" t="n">
         <v>223</v>
       </c>
       <c r="E10" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F10" t="n">
-        <v>38735.3176</v>
+        <v>22505.7455</v>
       </c>
       <c r="G10" t="n">
-        <v>222</v>
+        <v>196.9333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>222</v>
       </c>
       <c r="C11" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D11" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E11" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F11" t="n">
-        <v>8828.7983</v>
+        <v>38735.3176</v>
       </c>
       <c r="G11" t="n">
-        <v>222.5</v>
+        <v>197.4333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C12" t="n">
+        <v>222</v>
+      </c>
+      <c r="D12" t="n">
+        <v>222</v>
+      </c>
+      <c r="E12" t="n">
         <v>220</v>
       </c>
-      <c r="D12" t="n">
-        <v>221</v>
-      </c>
-      <c r="E12" t="n">
-        <v>219</v>
-      </c>
       <c r="F12" t="n">
-        <v>10202.9628</v>
+        <v>8828.7983</v>
       </c>
       <c r="G12" t="n">
-        <v>221</v>
+        <v>197.9166666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" t="n">
         <v>220</v>
       </c>
       <c r="D13" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" t="n">
         <v>219</v>
       </c>
       <c r="F13" t="n">
-        <v>12289.2734</v>
+        <v>10202.9628</v>
       </c>
       <c r="G13" t="n">
-        <v>220</v>
+        <v>198.3833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>222</v>
+      </c>
+      <c r="C14" t="n">
         <v>220</v>
       </c>
-      <c r="C14" t="n">
-        <v>221</v>
-      </c>
       <c r="D14" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E14" t="n">
         <v>219</v>
       </c>
       <c r="F14" t="n">
-        <v>21227.58</v>
+        <v>12289.2734</v>
       </c>
       <c r="G14" t="n">
-        <v>220.5</v>
+        <v>198.85</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>220</v>
+      </c>
+      <c r="C15" t="n">
         <v>221</v>
-      </c>
-      <c r="C15" t="n">
-        <v>220</v>
       </c>
       <c r="D15" t="n">
         <v>221</v>
       </c>
       <c r="E15" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F15" t="n">
-        <v>5643.1301</v>
+        <v>21227.58</v>
       </c>
       <c r="G15" t="n">
-        <v>220.5</v>
+        <v>199.35</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C16" t="n">
         <v>220</v>
       </c>
       <c r="D16" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E16" t="n">
         <v>220</v>
       </c>
       <c r="F16" t="n">
-        <v>115.8938</v>
+        <v>5643.1301</v>
       </c>
       <c r="G16" t="n">
-        <v>220</v>
+        <v>199.8166666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>220</v>
       </c>
       <c r="C17" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D17" t="n">
         <v>220</v>
       </c>
       <c r="E17" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F17" t="n">
-        <v>29025.0256</v>
+        <v>115.8938</v>
       </c>
       <c r="G17" t="n">
-        <v>217.5</v>
+        <v>200.2833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C18" t="n">
         <v>215</v>
       </c>
       <c r="D18" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E18" t="n">
         <v>215</v>
       </c>
       <c r="F18" t="n">
-        <v>3120.7374</v>
+        <v>29025.0256</v>
       </c>
       <c r="G18" t="n">
-        <v>215</v>
+        <v>200.6833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D19" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E19" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F19" t="n">
-        <v>349.3164</v>
+        <v>3120.7374</v>
       </c>
       <c r="G19" t="n">
-        <v>215.5</v>
+        <v>201.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C20" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D20" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E20" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F20" t="n">
-        <v>24087.6157</v>
+        <v>349.3164</v>
       </c>
       <c r="G20" t="n">
-        <v>213.5</v>
+        <v>201.5166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C21" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D21" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E21" t="n">
         <v>210</v>
       </c>
       <c r="F21" t="n">
-        <v>40229.8459</v>
+        <v>24087.6157</v>
       </c>
       <c r="G21" t="n">
-        <v>212.5</v>
+        <v>201.8666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C22" t="n">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D22" t="n">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E22" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F22" t="n">
-        <v>124225.5213713004</v>
+        <v>40229.8459</v>
       </c>
       <c r="G22" t="n">
-        <v>217.5</v>
+        <v>202.2333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C23" t="n">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D23" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E23" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F23" t="n">
-        <v>51250.311149144</v>
+        <v>124225.5213713004</v>
       </c>
       <c r="G23" t="n">
-        <v>223</v>
+        <v>202.75</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>220</v>
+      </c>
+      <c r="C24" t="n">
         <v>225</v>
       </c>
-      <c r="C24" t="n">
-        <v>222</v>
-      </c>
       <c r="D24" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F24" t="n">
-        <v>40904.00165663717</v>
+        <v>51250.311149144</v>
       </c>
       <c r="G24" t="n">
-        <v>223.5</v>
+        <v>203.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>225</v>
+      </c>
+      <c r="C25" t="n">
         <v>222</v>
       </c>
-      <c r="C25" t="n">
-        <v>224</v>
-      </c>
       <c r="D25" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E25" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F25" t="n">
-        <v>13218.7021</v>
+        <v>40904.00165663717</v>
       </c>
       <c r="G25" t="n">
-        <v>223</v>
+        <v>203.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C26" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D26" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E26" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F26" t="n">
-        <v>25907.91182422908</v>
+        <v>13218.7021</v>
       </c>
       <c r="G26" t="n">
-        <v>225</v>
+        <v>204.35</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>225</v>
+      </c>
+      <c r="C27" t="n">
         <v>226</v>
       </c>
-      <c r="C27" t="n">
-        <v>228</v>
-      </c>
       <c r="D27" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E27" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F27" t="n">
-        <v>73096.71247577092</v>
+        <v>25907.91182422908</v>
       </c>
       <c r="G27" t="n">
-        <v>227</v>
+        <v>204.9333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C28" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D28" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F28" t="n">
-        <v>82838.0542441048</v>
+        <v>73096.71247577092</v>
       </c>
       <c r="G28" t="n">
-        <v>225</v>
+        <v>205.5333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C29" t="n">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D29" t="n">
         <v>229</v>
       </c>
       <c r="E29" t="n">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F29" t="n">
-        <v>5582.471436244541</v>
+        <v>82838.0542441048</v>
       </c>
       <c r="G29" t="n">
-        <v>225</v>
+        <v>206.05</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>228</v>
       </c>
       <c r="C30" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D30" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E30" t="n">
         <v>228</v>
       </c>
       <c r="F30" t="n">
-        <v>181136.3636196507</v>
+        <v>5582.471436244541</v>
       </c>
       <c r="G30" t="n">
-        <v>229</v>
+        <v>206.6666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>228</v>
+      </c>
+      <c r="C31" t="n">
         <v>230</v>
       </c>
-      <c r="C31" t="n">
-        <v>233</v>
-      </c>
       <c r="D31" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E31" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F31" t="n">
-        <v>106695.447</v>
+        <v>181136.3636196507</v>
       </c>
       <c r="G31" t="n">
-        <v>231.5</v>
+        <v>207.3333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>230</v>
+      </c>
+      <c r="C32" t="n">
         <v>233</v>
       </c>
-      <c r="C32" t="n">
-        <v>232</v>
-      </c>
       <c r="D32" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E32" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F32" t="n">
-        <v>63736.9685</v>
+        <v>106695.447</v>
       </c>
       <c r="G32" t="n">
-        <v>232.5</v>
+        <v>208.0666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C33" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D33" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E33" t="n">
         <v>231</v>
       </c>
       <c r="F33" t="n">
-        <v>5769.43</v>
+        <v>63736.9685</v>
       </c>
       <c r="G33" t="n">
-        <v>231.5</v>
+        <v>208.7666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>231</v>
       </c>
       <c r="C34" t="n">
+        <v>231</v>
+      </c>
+      <c r="D34" t="n">
         <v>232</v>
-      </c>
-      <c r="D34" t="n">
-        <v>233</v>
       </c>
       <c r="E34" t="n">
         <v>231</v>
       </c>
       <c r="F34" t="n">
-        <v>47942.3733</v>
+        <v>5769.43</v>
       </c>
       <c r="G34" t="n">
-        <v>231.5</v>
+        <v>209.45</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>231</v>
+      </c>
+      <c r="C35" t="n">
         <v>232</v>
-      </c>
-      <c r="C35" t="n">
-        <v>229</v>
       </c>
       <c r="D35" t="n">
         <v>233</v>
       </c>
       <c r="E35" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F35" t="n">
-        <v>56771.80657253219</v>
+        <v>47942.3733</v>
       </c>
       <c r="G35" t="n">
-        <v>230.5</v>
+        <v>210.15</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,28 +1623,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C36" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D36" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E36" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F36" t="n">
-        <v>6973.8896</v>
+        <v>56771.80657253219</v>
       </c>
       <c r="G36" t="n">
-        <v>227</v>
+        <v>210.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1658,28 +1658,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C37" t="n">
+        <v>225</v>
+      </c>
+      <c r="D37" t="n">
         <v>227</v>
-      </c>
-      <c r="D37" t="n">
-        <v>228</v>
       </c>
       <c r="E37" t="n">
         <v>225</v>
       </c>
       <c r="F37" t="n">
-        <v>11499.88068289474</v>
+        <v>6973.8896</v>
       </c>
       <c r="G37" t="n">
-        <v>226</v>
+        <v>211.35</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1693,28 +1693,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C38" t="n">
         <v>227</v>
       </c>
       <c r="D38" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E38" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F38" t="n">
-        <v>54557.7571</v>
+        <v>11499.88068289474</v>
       </c>
       <c r="G38" t="n">
-        <v>227</v>
+        <v>211.9666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1731,19 +1731,19 @@
         <v>227</v>
       </c>
       <c r="C39" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E39" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F39" t="n">
-        <v>7663.2054</v>
+        <v>54557.7571</v>
       </c>
       <c r="G39" t="n">
-        <v>228</v>
+        <v>212.5833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C40" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D40" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E40" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F40" t="n">
-        <v>13525.9222</v>
+        <v>7663.2054</v>
       </c>
       <c r="G40" t="n">
-        <v>227.5</v>
+        <v>213.2333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,28 +1798,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C41" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D41" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E41" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F41" t="n">
-        <v>18074.6164</v>
+        <v>13525.9222</v>
       </c>
       <c r="G41" t="n">
-        <v>226.5</v>
+        <v>213.8333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1842,13 +1842,13 @@
         <v>227</v>
       </c>
       <c r="E42" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F42" t="n">
-        <v>2875.15</v>
+        <v>18074.6164</v>
       </c>
       <c r="G42" t="n">
-        <v>227</v>
+        <v>214.4666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>227</v>
       </c>
       <c r="C43" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E43" t="n">
         <v>227</v>
       </c>
       <c r="F43" t="n">
-        <v>1324.9551</v>
+        <v>2875.15</v>
       </c>
       <c r="G43" t="n">
-        <v>228</v>
+        <v>215.0833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,28 +1903,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>227</v>
+      </c>
+      <c r="C44" t="n">
         <v>229</v>
-      </c>
-      <c r="C44" t="n">
-        <v>228</v>
       </c>
       <c r="D44" t="n">
         <v>229</v>
       </c>
       <c r="E44" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F44" t="n">
-        <v>1554.46</v>
+        <v>1324.9551</v>
       </c>
       <c r="G44" t="n">
-        <v>228.5</v>
+        <v>215.7333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1938,28 +1938,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C45" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D45" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E45" t="n">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="F45" t="n">
-        <v>100536.8593</v>
+        <v>1554.46</v>
       </c>
       <c r="G45" t="n">
-        <v>225.5</v>
+        <v>216.3666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1973,28 +1973,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C46" t="n">
         <v>223</v>
       </c>
       <c r="D46" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E46" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F46" t="n">
-        <v>22347.3225</v>
+        <v>100536.8593</v>
       </c>
       <c r="G46" t="n">
-        <v>223</v>
+        <v>216.9166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C47" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D47" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E47" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F47" t="n">
-        <v>17874.2716</v>
+        <v>22347.3225</v>
       </c>
       <c r="G47" t="n">
-        <v>223.5</v>
+        <v>217.4833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C48" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D48" t="n">
         <v>224</v>
       </c>
       <c r="E48" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F48" t="n">
-        <v>75529.0414</v>
+        <v>17874.2716</v>
       </c>
       <c r="G48" t="n">
-        <v>222.5</v>
+        <v>218.0666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>222</v>
+      </c>
+      <c r="C49" t="n">
         <v>221</v>
       </c>
-      <c r="C49" t="n">
-        <v>220</v>
-      </c>
       <c r="D49" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E49" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F49" t="n">
-        <v>1288.4646</v>
+        <v>75529.0414</v>
       </c>
       <c r="G49" t="n">
-        <v>220.5</v>
+        <v>218.6166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C50" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D50" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E50" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F50" t="n">
-        <v>22297.3276</v>
+        <v>1288.4646</v>
       </c>
       <c r="G50" t="n">
-        <v>219.5</v>
+        <v>219.1166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C51" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D51" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E51" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F51" t="n">
-        <v>15324.7684</v>
+        <v>22297.3276</v>
       </c>
       <c r="G51" t="n">
-        <v>218</v>
+        <v>219.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>220</v>
+      </c>
+      <c r="C52" t="n">
         <v>217</v>
       </c>
-      <c r="C52" t="n">
-        <v>219</v>
-      </c>
       <c r="D52" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E52" t="n">
         <v>217</v>
       </c>
       <c r="F52" t="n">
-        <v>6838.488202283105</v>
+        <v>15324.7684</v>
       </c>
       <c r="G52" t="n">
-        <v>218</v>
+        <v>220.05</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C53" t="n">
         <v>219</v>
@@ -2227,23 +2227,29 @@
         <v>219</v>
       </c>
       <c r="E53" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F53" t="n">
-        <v>16584.1839</v>
+        <v>6838.488202283105</v>
       </c>
       <c r="G53" t="n">
-        <v>219</v>
+        <v>220.5333333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>217</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2256,29 +2262,35 @@
         <v>219</v>
       </c>
       <c r="C54" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D54" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E54" t="n">
+        <v>215</v>
+      </c>
+      <c r="F54" t="n">
+        <v>16584.1839</v>
+      </c>
+      <c r="G54" t="n">
+        <v>221.0166666666667</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>219</v>
       </c>
-      <c r="F54" t="n">
-        <v>8561.3727</v>
-      </c>
-      <c r="G54" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,32 +2300,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>219</v>
+      </c>
+      <c r="C55" t="n">
         <v>220</v>
-      </c>
-      <c r="C55" t="n">
-        <v>217</v>
       </c>
       <c r="D55" t="n">
         <v>220</v>
       </c>
       <c r="E55" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F55" t="n">
-        <v>6132.6958</v>
+        <v>8561.3727</v>
       </c>
       <c r="G55" t="n">
-        <v>218.5</v>
+        <v>221.4333333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>219</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,32 +2341,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C56" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D56" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E56" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F56" t="n">
-        <v>1341.0134</v>
+        <v>6132.6958</v>
       </c>
       <c r="G56" t="n">
-        <v>218</v>
+        <v>221.7333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>220</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,32 +2382,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>218</v>
+      </c>
+      <c r="C57" t="n">
         <v>219</v>
       </c>
-      <c r="C57" t="n">
-        <v>220</v>
-      </c>
       <c r="D57" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E57" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F57" t="n">
-        <v>586.913</v>
+        <v>1341.0134</v>
       </c>
       <c r="G57" t="n">
-        <v>219.5</v>
+        <v>222.05</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>217</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,10 +2423,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>219</v>
+      </c>
+      <c r="C58" t="n">
         <v>220</v>
-      </c>
-      <c r="C58" t="n">
-        <v>219</v>
       </c>
       <c r="D58" t="n">
         <v>220</v>
@@ -2405,20 +2435,26 @@
         <v>219</v>
       </c>
       <c r="F58" t="n">
-        <v>4029.1216</v>
+        <v>586.913</v>
       </c>
       <c r="G58" t="n">
-        <v>219.5</v>
+        <v>222.2166666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>219</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,10 +2464,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>220</v>
+      </c>
+      <c r="C59" t="n">
         <v>219</v>
-      </c>
-      <c r="C59" t="n">
-        <v>220</v>
       </c>
       <c r="D59" t="n">
         <v>220</v>
@@ -2440,10 +2476,10 @@
         <v>219</v>
       </c>
       <c r="F59" t="n">
-        <v>5960.5894</v>
+        <v>4029.1216</v>
       </c>
       <c r="G59" t="n">
-        <v>219.5</v>
+        <v>222.3833333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2489,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,7 +2503,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C60" t="n">
         <v>220</v>
@@ -2472,13 +2512,13 @@
         <v>220</v>
       </c>
       <c r="E60" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F60" t="n">
-        <v>9330.114</v>
+        <v>5960.5894</v>
       </c>
       <c r="G60" t="n">
-        <v>220</v>
+        <v>222.55</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2528,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,7 +2542,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C61" t="n">
         <v>220</v>
@@ -2510,10 +2554,10 @@
         <v>217</v>
       </c>
       <c r="F61" t="n">
-        <v>3700.8215</v>
+        <v>9330.114</v>
       </c>
       <c r="G61" t="n">
-        <v>220</v>
+        <v>222.5833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2567,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2581,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>219</v>
+      </c>
+      <c r="C62" t="n">
         <v>220</v>
-      </c>
-      <c r="C62" t="n">
-        <v>219</v>
       </c>
       <c r="D62" t="n">
         <v>220</v>
       </c>
       <c r="E62" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F62" t="n">
-        <v>332.155</v>
+        <v>3700.8215</v>
       </c>
       <c r="G62" t="n">
-        <v>219.5</v>
+        <v>222.6166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2606,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2571,19 +2623,19 @@
         <v>220</v>
       </c>
       <c r="C63" t="n">
+        <v>219</v>
+      </c>
+      <c r="D63" t="n">
         <v>220</v>
       </c>
-      <c r="D63" t="n">
-        <v>223</v>
-      </c>
       <c r="E63" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F63" t="n">
-        <v>42536.553</v>
+        <v>332.155</v>
       </c>
       <c r="G63" t="n">
-        <v>219.5</v>
+        <v>222.65</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2645,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2606,19 +2662,19 @@
         <v>220</v>
       </c>
       <c r="C64" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D64" t="n">
         <v>223</v>
       </c>
       <c r="E64" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F64" t="n">
-        <v>7237.3683</v>
+        <v>42536.553</v>
       </c>
       <c r="G64" t="n">
-        <v>221</v>
+        <v>222.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2684,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2641,19 +2701,19 @@
         <v>220</v>
       </c>
       <c r="C65" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D65" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E65" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F65" t="n">
-        <v>27371.1432</v>
+        <v>7237.3683</v>
       </c>
       <c r="G65" t="n">
-        <v>221</v>
+        <v>222.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2723,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2737,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C66" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D66" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E66" t="n">
         <v>218</v>
       </c>
       <c r="F66" t="n">
-        <v>29407.689</v>
+        <v>27371.1432</v>
       </c>
       <c r="G66" t="n">
-        <v>219</v>
+        <v>222.6333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2762,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2776,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>219</v>
+      </c>
+      <c r="C67" t="n">
         <v>218</v>
-      </c>
-      <c r="C67" t="n">
-        <v>217</v>
       </c>
       <c r="D67" t="n">
         <v>220</v>
       </c>
       <c r="E67" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F67" t="n">
-        <v>18284.5482</v>
+        <v>29407.689</v>
       </c>
       <c r="G67" t="n">
-        <v>217.5</v>
+        <v>222.4833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2801,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2815,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>218</v>
+      </c>
+      <c r="C68" t="n">
         <v>217</v>
       </c>
-      <c r="C68" t="n">
-        <v>213</v>
-      </c>
       <c r="D68" t="n">
+        <v>220</v>
+      </c>
+      <c r="E68" t="n">
         <v>217</v>
       </c>
-      <c r="E68" t="n">
-        <v>213</v>
-      </c>
       <c r="F68" t="n">
-        <v>33337.5052</v>
+        <v>18284.5482</v>
       </c>
       <c r="G68" t="n">
-        <v>215</v>
+        <v>222.4333333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2840,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2854,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C69" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D69" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E69" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F69" t="n">
-        <v>11183.2431</v>
+        <v>33337.5052</v>
       </c>
       <c r="G69" t="n">
-        <v>215.5</v>
+        <v>222.25</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2879,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2893,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C70" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D70" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E70" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F70" t="n">
-        <v>11022.0418</v>
+        <v>11183.2431</v>
       </c>
       <c r="G70" t="n">
-        <v>215.5</v>
+        <v>222.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +2918,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2851,19 +2935,19 @@
         <v>214</v>
       </c>
       <c r="C71" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D71" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E71" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F71" t="n">
-        <v>1543.3433</v>
+        <v>11022.0418</v>
       </c>
       <c r="G71" t="n">
-        <v>215.5</v>
+        <v>222.0333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +2957,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2971,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>214</v>
+      </c>
+      <c r="C72" t="n">
         <v>218</v>
-      </c>
-      <c r="C72" t="n">
-        <v>216</v>
       </c>
       <c r="D72" t="n">
         <v>218</v>
       </c>
       <c r="E72" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F72" t="n">
-        <v>12360.0757353211</v>
+        <v>1543.3433</v>
       </c>
       <c r="G72" t="n">
-        <v>217</v>
+        <v>221.9666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +2996,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3010,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>218</v>
+      </c>
+      <c r="C73" t="n">
         <v>216</v>
       </c>
-      <c r="C73" t="n">
-        <v>217</v>
-      </c>
       <c r="D73" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E73" t="n">
         <v>216</v>
       </c>
       <c r="F73" t="n">
-        <v>3156.9107</v>
+        <v>12360.0757353211</v>
       </c>
       <c r="G73" t="n">
-        <v>216.5</v>
+        <v>221.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3035,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3049,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>216</v>
+      </c>
+      <c r="C74" t="n">
         <v>217</v>
-      </c>
-      <c r="C74" t="n">
-        <v>215</v>
       </c>
       <c r="D74" t="n">
         <v>217</v>
       </c>
       <c r="E74" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F74" t="n">
-        <v>7640.0114</v>
+        <v>3156.9107</v>
       </c>
       <c r="G74" t="n">
-        <v>216</v>
+        <v>221.85</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3074,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3088,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C75" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E75" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F75" t="n">
-        <v>38357.84010921659</v>
+        <v>7640.0114</v>
       </c>
       <c r="G75" t="n">
-        <v>214</v>
+        <v>221.75</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3113,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3127,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>216</v>
+      </c>
+      <c r="C76" t="n">
         <v>213</v>
       </c>
-      <c r="C76" t="n">
-        <v>214</v>
-      </c>
       <c r="D76" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E76" t="n">
         <v>213</v>
       </c>
       <c r="F76" t="n">
-        <v>2406.7488</v>
+        <v>38357.84010921659</v>
       </c>
       <c r="G76" t="n">
-        <v>213.5</v>
+        <v>221.6333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3152,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3166,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C77" t="n">
         <v>214</v>
       </c>
       <c r="D77" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E77" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F77" t="n">
-        <v>342.7515</v>
+        <v>2406.7488</v>
       </c>
       <c r="G77" t="n">
-        <v>214</v>
+        <v>221.5333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3191,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3205,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>218</v>
+      </c>
+      <c r="C78" t="n">
         <v>214</v>
       </c>
-      <c r="C78" t="n">
-        <v>210</v>
-      </c>
       <c r="D78" t="n">
+        <v>218</v>
+      </c>
+      <c r="E78" t="n">
         <v>214</v>
       </c>
-      <c r="E78" t="n">
-        <v>210</v>
-      </c>
       <c r="F78" t="n">
-        <v>75739.39169999999</v>
+        <v>342.7515</v>
       </c>
       <c r="G78" t="n">
-        <v>212</v>
+        <v>221.5166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3230,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,10 +3244,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>214</v>
+      </c>
+      <c r="C79" t="n">
         <v>210</v>
-      </c>
-      <c r="C79" t="n">
-        <v>214</v>
       </c>
       <c r="D79" t="n">
         <v>214</v>
@@ -3140,10 +3256,10 @@
         <v>210</v>
       </c>
       <c r="F79" t="n">
-        <v>101999.856</v>
+        <v>75739.39169999999</v>
       </c>
       <c r="G79" t="n">
-        <v>212</v>
+        <v>221.4333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3269,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,7 +3283,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C80" t="n">
         <v>214</v>
@@ -3172,13 +3292,13 @@
         <v>214</v>
       </c>
       <c r="E80" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F80" t="n">
-        <v>2055.5824</v>
+        <v>101999.856</v>
       </c>
       <c r="G80" t="n">
-        <v>214</v>
+        <v>221.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3308,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3204,16 +3328,16 @@
         <v>214</v>
       </c>
       <c r="D81" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E81" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F81" t="n">
-        <v>66403.66800000001</v>
+        <v>2055.5824</v>
       </c>
       <c r="G81" t="n">
-        <v>214</v>
+        <v>221.45</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3347,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3236,19 +3364,19 @@
         <v>214</v>
       </c>
       <c r="C82" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D82" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E82" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F82" t="n">
-        <v>10149.7669</v>
+        <v>66403.66800000001</v>
       </c>
       <c r="G82" t="n">
-        <v>213.5</v>
+        <v>221.45</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3386,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3400,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C83" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D83" t="n">
         <v>217</v>
       </c>
       <c r="E83" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F83" t="n">
-        <v>4816.326</v>
+        <v>10149.7669</v>
       </c>
       <c r="G83" t="n">
-        <v>215</v>
+        <v>221.3166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3425,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3439,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>216</v>
+      </c>
+      <c r="C84" t="n">
         <v>217</v>
-      </c>
-      <c r="C84" t="n">
-        <v>215</v>
       </c>
       <c r="D84" t="n">
         <v>217</v>
       </c>
       <c r="E84" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F84" t="n">
-        <v>2540.6321</v>
+        <v>4816.326</v>
       </c>
       <c r="G84" t="n">
-        <v>216</v>
+        <v>221.1833333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3464,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3478,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C85" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D85" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E85" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F85" t="n">
-        <v>17.3909</v>
+        <v>2540.6321</v>
       </c>
       <c r="G85" t="n">
-        <v>215.5</v>
+        <v>221.0666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3503,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3385,10 +3529,10 @@
         <v>216</v>
       </c>
       <c r="F86" t="n">
-        <v>782.2406</v>
+        <v>17.3909</v>
       </c>
       <c r="G86" t="n">
-        <v>216</v>
+        <v>220.9333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3542,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,10 +3556,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>218</v>
+      </c>
+      <c r="C87" t="n">
         <v>216</v>
-      </c>
-      <c r="C87" t="n">
-        <v>218</v>
       </c>
       <c r="D87" t="n">
         <v>218</v>
@@ -3420,10 +3568,10 @@
         <v>216</v>
       </c>
       <c r="F87" t="n">
-        <v>16339.9819</v>
+        <v>782.2406</v>
       </c>
       <c r="G87" t="n">
-        <v>217</v>
+        <v>220.7666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3581,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3446,19 +3598,19 @@
         <v>216</v>
       </c>
       <c r="C88" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D88" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E88" t="n">
         <v>216</v>
       </c>
       <c r="F88" t="n">
-        <v>7280.2654</v>
+        <v>16339.9819</v>
       </c>
       <c r="G88" t="n">
-        <v>217</v>
+        <v>220.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3620,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3634,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C89" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D89" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E89" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F89" t="n">
-        <v>10489.827</v>
+        <v>7280.2654</v>
       </c>
       <c r="G89" t="n">
-        <v>216.5</v>
+        <v>220.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3659,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3673,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C90" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D90" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E90" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F90" t="n">
-        <v>22765.9028</v>
+        <v>10489.827</v>
       </c>
       <c r="G90" t="n">
-        <v>216.5</v>
+        <v>220.3166666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3698,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3554,16 +3718,16 @@
         <v>216</v>
       </c>
       <c r="D91" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E91" t="n">
         <v>216</v>
       </c>
       <c r="F91" t="n">
-        <v>9362.356</v>
+        <v>22765.9028</v>
       </c>
       <c r="G91" t="n">
-        <v>216</v>
+        <v>220.0833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3737,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3589,16 +3757,16 @@
         <v>216</v>
       </c>
       <c r="D92" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E92" t="n">
         <v>216</v>
       </c>
       <c r="F92" t="n">
-        <v>159.9323</v>
+        <v>9362.356</v>
       </c>
       <c r="G92" t="n">
-        <v>216</v>
+        <v>219.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3776,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3627,13 +3799,13 @@
         <v>216</v>
       </c>
       <c r="E93" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F93" t="n">
-        <v>6789.9039</v>
+        <v>159.9323</v>
       </c>
       <c r="G93" t="n">
-        <v>216</v>
+        <v>219.5333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3815,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3829,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C94" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D94" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E94" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F94" t="n">
-        <v>249.2765</v>
+        <v>6789.9039</v>
       </c>
       <c r="G94" t="n">
-        <v>216.5</v>
+        <v>219.2833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3854,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3868,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C95" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D95" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E95" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F95" t="n">
-        <v>9790.7546</v>
+        <v>249.2765</v>
       </c>
       <c r="G95" t="n">
-        <v>216</v>
+        <v>219.0333333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +3893,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3907,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>216</v>
+      </c>
+      <c r="C96" t="n">
         <v>215</v>
       </c>
-      <c r="C96" t="n">
-        <v>213</v>
-      </c>
       <c r="D96" t="n">
+        <v>216</v>
+      </c>
+      <c r="E96" t="n">
         <v>215</v>
       </c>
-      <c r="E96" t="n">
-        <v>213</v>
-      </c>
       <c r="F96" t="n">
-        <v>11135.5373</v>
+        <v>9790.7546</v>
       </c>
       <c r="G96" t="n">
-        <v>214</v>
+        <v>218.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +3932,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3946,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C97" t="n">
         <v>213</v>
       </c>
       <c r="D97" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E97" t="n">
         <v>213</v>
       </c>
       <c r="F97" t="n">
-        <v>4636.7006</v>
+        <v>11135.5373</v>
       </c>
       <c r="G97" t="n">
-        <v>213</v>
+        <v>218.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +3971,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +3985,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C98" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D98" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E98" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F98" t="n">
-        <v>76.5899</v>
+        <v>4636.7006</v>
       </c>
       <c r="G98" t="n">
-        <v>213.5</v>
+        <v>218.3666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +4010,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +4024,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C99" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D99" t="n">
         <v>216</v>
       </c>
       <c r="E99" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F99" t="n">
-        <v>17689.4145</v>
+        <v>76.5899</v>
       </c>
       <c r="G99" t="n">
-        <v>215</v>
+        <v>218.15</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +4049,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3866,19 +4066,19 @@
         <v>216</v>
       </c>
       <c r="C100" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D100" t="n">
         <v>216</v>
       </c>
       <c r="E100" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F100" t="n">
-        <v>3457.0601</v>
+        <v>17689.4145</v>
       </c>
       <c r="G100" t="n">
-        <v>215.5</v>
+        <v>217.9333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +4088,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4102,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C101" t="n">
         <v>215</v>
       </c>
       <c r="D101" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E101" t="n">
         <v>215</v>
       </c>
       <c r="F101" t="n">
-        <v>1607.9891</v>
+        <v>3457.0601</v>
       </c>
       <c r="G101" t="n">
-        <v>215</v>
+        <v>217.75</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4127,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3936,19 +4144,19 @@
         <v>215</v>
       </c>
       <c r="C102" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D102" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E102" t="n">
         <v>215</v>
       </c>
       <c r="F102" t="n">
-        <v>672.2187</v>
+        <v>1607.9891</v>
       </c>
       <c r="G102" t="n">
-        <v>215.5</v>
+        <v>217.55</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4166,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,36 +4180,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C103" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D103" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E103" t="n">
         <v>215</v>
       </c>
       <c r="F103" t="n">
-        <v>7408.3205</v>
+        <v>672.2187</v>
       </c>
       <c r="G103" t="n">
-        <v>215.5</v>
+        <v>217.3666666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>216</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -4009,32 +4219,30 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C104" t="n">
         <v>215</v>
       </c>
       <c r="D104" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E104" t="n">
         <v>215</v>
       </c>
       <c r="F104" t="n">
-        <v>2768.7441</v>
+        <v>7408.3205</v>
       </c>
       <c r="G104" t="n">
-        <v>215</v>
+        <v>217.1333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>215</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4053,19 +4261,19 @@
         <v>215</v>
       </c>
       <c r="C105" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D105" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E105" t="n">
         <v>215</v>
       </c>
       <c r="F105" t="n">
-        <v>6093.418</v>
+        <v>2768.7441</v>
       </c>
       <c r="G105" t="n">
-        <v>215.5</v>
+        <v>216.9166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4089,22 +4297,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D106" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E106" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F106" t="n">
-        <v>1128.31</v>
+        <v>6093.418</v>
       </c>
       <c r="G106" t="n">
-        <v>217</v>
+        <v>216.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4131,19 +4339,19 @@
         <v>217</v>
       </c>
       <c r="C107" t="n">
+        <v>218</v>
+      </c>
+      <c r="D107" t="n">
+        <v>218</v>
+      </c>
+      <c r="E107" t="n">
         <v>217</v>
       </c>
-      <c r="D107" t="n">
-        <v>217</v>
-      </c>
-      <c r="E107" t="n">
-        <v>216</v>
-      </c>
       <c r="F107" t="n">
-        <v>2838.805076036866</v>
+        <v>1128.31</v>
       </c>
       <c r="G107" t="n">
-        <v>217.5</v>
+        <v>216.7166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4167,22 +4375,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C108" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D108" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E108" t="n">
         <v>216</v>
       </c>
       <c r="F108" t="n">
-        <v>2013.7389</v>
+        <v>2838.805076036866</v>
       </c>
       <c r="G108" t="n">
-        <v>216.5</v>
+        <v>216.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4206,22 +4414,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C109" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D109" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E109" t="n">
         <v>216</v>
       </c>
       <c r="F109" t="n">
-        <v>720.1009</v>
+        <v>2013.7389</v>
       </c>
       <c r="G109" t="n">
-        <v>216.5</v>
+        <v>216.5166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4254,13 +4462,13 @@
         <v>217</v>
       </c>
       <c r="E110" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F110" t="n">
-        <v>890.3086</v>
+        <v>720.1009</v>
       </c>
       <c r="G110" t="n">
-        <v>217</v>
+        <v>216.4666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4284,22 +4492,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C111" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D111" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E111" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F111" t="n">
-        <v>11414.4314</v>
+        <v>890.3086</v>
       </c>
       <c r="G111" t="n">
-        <v>214.5</v>
+        <v>216.4333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4323,22 +4531,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C112" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D112" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E112" t="n">
         <v>212</v>
       </c>
       <c r="F112" t="n">
-        <v>8342.7209</v>
+        <v>11414.4314</v>
       </c>
       <c r="G112" t="n">
-        <v>213.5</v>
+        <v>216.35</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4365,19 +4573,19 @@
         <v>213</v>
       </c>
       <c r="C113" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D113" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E113" t="n">
         <v>212</v>
       </c>
       <c r="F113" t="n">
-        <v>5740.0686</v>
+        <v>8342.7209</v>
       </c>
       <c r="G113" t="n">
-        <v>213.5</v>
+        <v>216.2833333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4404,19 +4612,19 @@
         <v>213</v>
       </c>
       <c r="C114" t="n">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D114" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E114" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F114" t="n">
-        <v>4632.9481</v>
+        <v>5740.0686</v>
       </c>
       <c r="G114" t="n">
-        <v>214.5</v>
+        <v>216.1666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4440,22 +4648,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>213</v>
+      </c>
+      <c r="C115" t="n">
         <v>217</v>
-      </c>
-      <c r="C115" t="n">
-        <v>215</v>
       </c>
       <c r="D115" t="n">
         <v>217</v>
       </c>
       <c r="E115" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F115" t="n">
-        <v>11010.2343</v>
+        <v>4632.9481</v>
       </c>
       <c r="G115" t="n">
-        <v>216</v>
+        <v>216.1166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4479,22 +4687,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C116" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D116" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E116" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F116" t="n">
-        <v>28047.3642</v>
+        <v>11010.2343</v>
       </c>
       <c r="G116" t="n">
-        <v>213.5</v>
+        <v>216.0833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4518,22 +4726,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C117" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D117" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E117" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F117" t="n">
-        <v>5739.3994</v>
+        <v>28047.3642</v>
       </c>
       <c r="G117" t="n">
-        <v>213.5</v>
+        <v>215.9666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4557,22 +4765,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C118" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D118" t="n">
         <v>215</v>
       </c>
       <c r="E118" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F118" t="n">
-        <v>5125.5717</v>
+        <v>5739.3994</v>
       </c>
       <c r="G118" t="n">
-        <v>214.5</v>
+        <v>215.8833333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4596,7 +4804,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C119" t="n">
         <v>214</v>
@@ -4608,10 +4816,10 @@
         <v>214</v>
       </c>
       <c r="F119" t="n">
-        <v>1032.3873</v>
+        <v>5125.5717</v>
       </c>
       <c r="G119" t="n">
-        <v>214</v>
+        <v>215.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4635,22 +4843,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C120" t="n">
         <v>214</v>
       </c>
       <c r="D120" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E120" t="n">
         <v>214</v>
       </c>
       <c r="F120" t="n">
-        <v>1593.0337</v>
+        <v>1032.3873</v>
       </c>
       <c r="G120" t="n">
-        <v>214</v>
+        <v>215.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4677,19 +4885,19 @@
         <v>214</v>
       </c>
       <c r="C121" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D121" t="n">
         <v>214</v>
       </c>
       <c r="E121" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F121" t="n">
-        <v>1446.9142</v>
+        <v>1593.0337</v>
       </c>
       <c r="G121" t="n">
-        <v>213.5</v>
+        <v>215.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4716,19 +4924,19 @@
         <v>214</v>
       </c>
       <c r="C122" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D122" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E122" t="n">
         <v>213</v>
       </c>
       <c r="F122" t="n">
-        <v>8096.4502</v>
+        <v>1446.9142</v>
       </c>
       <c r="G122" t="n">
-        <v>214</v>
+        <v>215.4833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4752,7 +4960,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C123" t="n">
         <v>215</v>
@@ -4761,13 +4969,13 @@
         <v>215</v>
       </c>
       <c r="E123" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F123" t="n">
-        <v>100</v>
+        <v>8096.4502</v>
       </c>
       <c r="G123" t="n">
-        <v>215</v>
+        <v>215.4166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4803,10 +5011,10 @@
         <v>215</v>
       </c>
       <c r="F124" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>215</v>
+        <v>215.3333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4830,22 +5038,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C125" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D125" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E125" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F125" t="n">
-        <v>2663.0194</v>
+        <v>2000</v>
       </c>
       <c r="G125" t="n">
-        <v>214.5</v>
+        <v>215.2166666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4869,22 +5077,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C126" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D126" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E126" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F126" t="n">
-        <v>4493.1796</v>
+        <v>2663.0194</v>
       </c>
       <c r="G126" t="n">
-        <v>213.5</v>
+        <v>215.1166666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4908,22 +5116,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>215</v>
+      </c>
+      <c r="C127" t="n">
         <v>213</v>
       </c>
-      <c r="C127" t="n">
-        <v>212</v>
-      </c>
       <c r="D127" t="n">
+        <v>215</v>
+      </c>
+      <c r="E127" t="n">
         <v>213</v>
       </c>
-      <c r="E127" t="n">
-        <v>212</v>
-      </c>
       <c r="F127" t="n">
-        <v>19857.3351</v>
+        <v>4493.1796</v>
       </c>
       <c r="G127" t="n">
-        <v>212.5</v>
+        <v>215.0333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4947,22 +5155,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C128" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D128" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E128" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F128" t="n">
-        <v>94.0549</v>
+        <v>19857.3351</v>
       </c>
       <c r="G128" t="n">
-        <v>213.5</v>
+        <v>214.95</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4986,22 +5194,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C129" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D129" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E129" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F129" t="n">
-        <v>26111.5023</v>
+        <v>94.0549</v>
       </c>
       <c r="G129" t="n">
-        <v>213</v>
+        <v>214.9833333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5028,19 +5236,19 @@
         <v>212</v>
       </c>
       <c r="C130" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D130" t="n">
         <v>212</v>
       </c>
       <c r="E130" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F130" t="n">
-        <v>300</v>
+        <v>26111.5023</v>
       </c>
       <c r="G130" t="n">
-        <v>211.5</v>
+        <v>214.8666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5064,22 +5272,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C131" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D131" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E131" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F131" t="n">
-        <v>3993.9846</v>
+        <v>300</v>
       </c>
       <c r="G131" t="n">
-        <v>211.5</v>
+        <v>214.85</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5103,22 +5311,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C132" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D132" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E132" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F132" t="n">
-        <v>1528.336</v>
+        <v>3993.9846</v>
       </c>
       <c r="G132" t="n">
-        <v>212</v>
+        <v>214.7333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,10 +5362,10 @@
         <v>213</v>
       </c>
       <c r="F133" t="n">
-        <v>587.7757</v>
+        <v>1528.336</v>
       </c>
       <c r="G133" t="n">
-        <v>213</v>
+        <v>214.6833333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,13 +5398,13 @@
         <v>213</v>
       </c>
       <c r="E134" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F134" t="n">
-        <v>6757.8549</v>
+        <v>587.7757</v>
       </c>
       <c r="G134" t="n">
-        <v>213</v>
+        <v>214.6166666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5220,22 +5428,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C135" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D135" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E135" t="n">
         <v>211</v>
       </c>
       <c r="F135" t="n">
-        <v>14392.57334528302</v>
+        <v>6757.8549</v>
       </c>
       <c r="G135" t="n">
-        <v>212.5</v>
+        <v>214.5833333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,19 +5470,19 @@
         <v>212</v>
       </c>
       <c r="C136" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D136" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E136" t="n">
         <v>211</v>
       </c>
       <c r="F136" t="n">
-        <v>34229.81675471698</v>
+        <v>14392.57334528302</v>
       </c>
       <c r="G136" t="n">
-        <v>212.5</v>
+        <v>214.5666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,7 +5506,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C137" t="n">
         <v>213</v>
@@ -5307,13 +5515,13 @@
         <v>213</v>
       </c>
       <c r="E137" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F137" t="n">
-        <v>2517.5062</v>
+        <v>34229.81675471698</v>
       </c>
       <c r="G137" t="n">
-        <v>213</v>
+        <v>214.55</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5340,19 +5548,19 @@
         <v>213</v>
       </c>
       <c r="C138" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D138" t="n">
         <v>213</v>
       </c>
       <c r="E138" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F138" t="n">
-        <v>12564.3909</v>
+        <v>2517.5062</v>
       </c>
       <c r="G138" t="n">
-        <v>212.5</v>
+        <v>214.5333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5376,22 +5584,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>213</v>
+      </c>
+      <c r="C139" t="n">
         <v>212</v>
       </c>
-      <c r="C139" t="n">
-        <v>214</v>
-      </c>
       <c r="D139" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E139" t="n">
         <v>212</v>
       </c>
       <c r="F139" t="n">
-        <v>6467.289719626168</v>
+        <v>12564.3909</v>
       </c>
       <c r="G139" t="n">
-        <v>213</v>
+        <v>214.5666666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5415,22 +5623,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C140" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D140" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E140" t="n">
         <v>212</v>
       </c>
       <c r="F140" t="n">
-        <v>4166.1149</v>
+        <v>6467.289719626168</v>
       </c>
       <c r="G140" t="n">
-        <v>213</v>
+        <v>214.5666666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5454,22 +5662,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C141" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D141" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E141" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F141" t="n">
-        <v>1314.4673</v>
+        <v>4166.1149</v>
       </c>
       <c r="G141" t="n">
-        <v>213</v>
+        <v>214.5333333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5505,10 +5713,10 @@
         <v>214</v>
       </c>
       <c r="F142" t="n">
-        <v>1847.6181</v>
+        <v>1314.4673</v>
       </c>
       <c r="G142" t="n">
-        <v>214</v>
+        <v>214.5333333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5535,19 +5743,19 @@
         <v>214</v>
       </c>
       <c r="C143" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D143" t="n">
         <v>214</v>
       </c>
       <c r="E143" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F143" t="n">
-        <v>2095.7134</v>
+        <v>1847.6181</v>
       </c>
       <c r="G143" t="n">
-        <v>213.5</v>
+        <v>214.55</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5574,19 +5782,19 @@
         <v>214</v>
       </c>
       <c r="C144" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D144" t="n">
         <v>214</v>
       </c>
       <c r="E144" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F144" t="n">
-        <v>7157.9505</v>
+        <v>2095.7134</v>
       </c>
       <c r="G144" t="n">
-        <v>213.5</v>
+        <v>214.4833333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5610,7 +5818,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C145" t="n">
         <v>214</v>
@@ -5619,13 +5827,13 @@
         <v>214</v>
       </c>
       <c r="E145" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F145" t="n">
-        <v>218.6195</v>
+        <v>7157.9505</v>
       </c>
       <c r="G145" t="n">
-        <v>214</v>
+        <v>214.4666666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5652,19 +5860,19 @@
         <v>212</v>
       </c>
       <c r="C146" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D146" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E146" t="n">
         <v>212</v>
       </c>
       <c r="F146" t="n">
-        <v>2501.3692</v>
+        <v>218.6195</v>
       </c>
       <c r="G146" t="n">
-        <v>213</v>
+        <v>214.4333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5700,10 +5908,10 @@
         <v>212</v>
       </c>
       <c r="F147" t="n">
-        <v>1813.065</v>
+        <v>2501.3692</v>
       </c>
       <c r="G147" t="n">
-        <v>212</v>
+        <v>214.3666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5727,22 +5935,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C148" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D148" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E148" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F148" t="n">
-        <v>476.0784</v>
+        <v>1813.065</v>
       </c>
       <c r="G148" t="n">
-        <v>213</v>
+        <v>214.2666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5769,19 +5977,19 @@
         <v>214</v>
       </c>
       <c r="C149" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D149" t="n">
         <v>214</v>
       </c>
       <c r="E149" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F149" t="n">
-        <v>1893.4732</v>
+        <v>476.0784</v>
       </c>
       <c r="G149" t="n">
-        <v>213</v>
+        <v>214.2333333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5808,19 +6016,19 @@
         <v>214</v>
       </c>
       <c r="C150" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D150" t="n">
         <v>214</v>
       </c>
       <c r="E150" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F150" t="n">
-        <v>467.2897196261682</v>
+        <v>1893.4732</v>
       </c>
       <c r="G150" t="n">
-        <v>213</v>
+        <v>214.15</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5856,10 +6064,10 @@
         <v>214</v>
       </c>
       <c r="F151" t="n">
-        <v>1596.2158</v>
+        <v>467.2897196261682</v>
       </c>
       <c r="G151" t="n">
-        <v>214</v>
+        <v>214.1166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5883,22 +6091,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C152" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D152" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E152" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F152" t="n">
-        <v>239.1616</v>
+        <v>1596.2158</v>
       </c>
       <c r="G152" t="n">
-        <v>213.5</v>
+        <v>214.0833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5934,10 +6142,10 @@
         <v>213</v>
       </c>
       <c r="F153" t="n">
-        <v>260.8384</v>
+        <v>239.1616</v>
       </c>
       <c r="G153" t="n">
-        <v>213</v>
+        <v>214.0333333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5961,22 +6169,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C154" t="n">
         <v>213</v>
       </c>
       <c r="D154" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E154" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F154" t="n">
-        <v>42829.84138037383</v>
+        <v>260.8384</v>
       </c>
       <c r="G154" t="n">
-        <v>213</v>
+        <v>213.9833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6003,19 +6211,19 @@
         <v>214</v>
       </c>
       <c r="C155" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D155" t="n">
         <v>214</v>
       </c>
       <c r="E155" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F155" t="n">
-        <v>19821.35681962617</v>
+        <v>42829.84138037383</v>
       </c>
       <c r="G155" t="n">
-        <v>212</v>
+        <v>213.9166666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6039,22 +6247,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C156" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D156" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E156" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F156" t="n">
-        <v>5094.254580373832</v>
+        <v>19821.35681962617</v>
       </c>
       <c r="G156" t="n">
-        <v>212</v>
+        <v>213.85</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6078,7 +6286,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C157" t="n">
         <v>213</v>
@@ -6087,13 +6295,13 @@
         <v>213</v>
       </c>
       <c r="E157" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F157" t="n">
-        <v>1360</v>
+        <v>5094.254580373832</v>
       </c>
       <c r="G157" t="n">
-        <v>213</v>
+        <v>213.85</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6117,22 +6325,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C158" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D158" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E158" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F158" t="n">
-        <v>7232.9524</v>
+        <v>1360</v>
       </c>
       <c r="G158" t="n">
-        <v>213.5</v>
+        <v>213.85</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6156,22 +6364,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C159" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D159" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E159" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F159" t="n">
-        <v>605.6181</v>
+        <v>7232.9524</v>
       </c>
       <c r="G159" t="n">
-        <v>213</v>
+        <v>213.85</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6195,22 +6403,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C160" t="n">
+        <v>212</v>
+      </c>
+      <c r="D160" t="n">
         <v>213</v>
       </c>
-      <c r="D160" t="n">
-        <v>214</v>
-      </c>
       <c r="E160" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F160" t="n">
-        <v>120.4047</v>
+        <v>605.6181</v>
       </c>
       <c r="G160" t="n">
-        <v>212.5</v>
+        <v>213.7833333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6234,22 +6442,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C161" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D161" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E161" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F161" t="n">
-        <v>11133.5185</v>
+        <v>120.4047</v>
       </c>
       <c r="G161" t="n">
-        <v>212.5</v>
+        <v>213.75</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6276,19 +6484,19 @@
         <v>212</v>
       </c>
       <c r="C162" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D162" t="n">
         <v>212</v>
       </c>
       <c r="E162" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F162" t="n">
-        <v>47098.8594</v>
+        <v>11133.5185</v>
       </c>
       <c r="G162" t="n">
-        <v>211</v>
+        <v>213.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6312,22 +6520,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C163" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D163" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E163" t="n">
         <v>210</v>
       </c>
       <c r="F163" t="n">
-        <v>5099.9199</v>
+        <v>47098.8594</v>
       </c>
       <c r="G163" t="n">
-        <v>212</v>
+        <v>213.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6354,19 +6562,19 @@
         <v>211</v>
       </c>
       <c r="C164" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D164" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E164" t="n">
         <v>210</v>
       </c>
       <c r="F164" t="n">
-        <v>5363.0908</v>
+        <v>5099.9199</v>
       </c>
       <c r="G164" t="n">
-        <v>213.5</v>
+        <v>213.5833333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6390,22 +6598,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C165" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D165" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E165" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F165" t="n">
-        <v>29.8647</v>
+        <v>5363.0908</v>
       </c>
       <c r="G165" t="n">
-        <v>213.5</v>
+        <v>213.55</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6429,22 +6637,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C166" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D166" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E166" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F166" t="n">
-        <v>339.5519</v>
+        <v>29.8647</v>
       </c>
       <c r="G166" t="n">
-        <v>212.5</v>
+        <v>213.5166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6468,22 +6676,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C167" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D167" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E167" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F167" t="n">
-        <v>4858.6587</v>
+        <v>339.5519</v>
       </c>
       <c r="G167" t="n">
-        <v>210.5</v>
+        <v>213.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6519,10 +6727,10 @@
         <v>210</v>
       </c>
       <c r="F168" t="n">
-        <v>50211.081</v>
+        <v>4858.6587</v>
       </c>
       <c r="G168" t="n">
-        <v>210</v>
+        <v>213.2833333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6558,10 +6766,10 @@
         <v>210</v>
       </c>
       <c r="F169" t="n">
-        <v>6954.1645</v>
+        <v>50211.081</v>
       </c>
       <c r="G169" t="n">
-        <v>210</v>
+        <v>213.1833333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6597,10 +6805,10 @@
         <v>210</v>
       </c>
       <c r="F170" t="n">
-        <v>428.673</v>
+        <v>6954.1645</v>
       </c>
       <c r="G170" t="n">
-        <v>210</v>
+        <v>213.0666666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6627,19 +6835,19 @@
         <v>210</v>
       </c>
       <c r="C171" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D171" t="n">
         <v>210</v>
       </c>
       <c r="E171" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F171" t="n">
-        <v>9010.198700000001</v>
+        <v>428.673</v>
       </c>
       <c r="G171" t="n">
-        <v>209.5</v>
+        <v>212.95</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6666,19 +6874,19 @@
         <v>210</v>
       </c>
       <c r="C172" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D172" t="n">
         <v>210</v>
       </c>
       <c r="E172" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F172" t="n">
-        <v>574.2094</v>
+        <v>9010.198700000001</v>
       </c>
       <c r="G172" t="n">
-        <v>209.5</v>
+        <v>212.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6705,19 +6913,19 @@
         <v>210</v>
       </c>
       <c r="C173" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D173" t="n">
         <v>210</v>
       </c>
       <c r="E173" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F173" t="n">
-        <v>26285.1575</v>
+        <v>574.2094</v>
       </c>
       <c r="G173" t="n">
-        <v>208.5</v>
+        <v>212.8166666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6741,22 +6949,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>210</v>
+      </c>
+      <c r="C174" t="n">
         <v>207</v>
       </c>
-      <c r="C174" t="n">
-        <v>201</v>
-      </c>
       <c r="D174" t="n">
+        <v>210</v>
+      </c>
+      <c r="E174" t="n">
         <v>207</v>
       </c>
-      <c r="E174" t="n">
-        <v>201</v>
-      </c>
       <c r="F174" t="n">
-        <v>60000</v>
+        <v>26285.1575</v>
       </c>
       <c r="G174" t="n">
-        <v>204</v>
+        <v>212.7333333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6780,22 +6988,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C175" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D175" t="n">
         <v>207</v>
       </c>
       <c r="E175" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F175" t="n">
-        <v>3089.259</v>
+        <v>60000</v>
       </c>
       <c r="G175" t="n">
-        <v>203.5</v>
+        <v>212.4666666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6822,19 +7030,19 @@
         <v>205</v>
       </c>
       <c r="C176" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D176" t="n">
+        <v>207</v>
+      </c>
+      <c r="E176" t="n">
         <v>205</v>
       </c>
-      <c r="E176" t="n">
-        <v>203</v>
-      </c>
       <c r="F176" t="n">
-        <v>24000</v>
+        <v>3089.259</v>
       </c>
       <c r="G176" t="n">
-        <v>204.5</v>
+        <v>212.3166666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6858,22 +7066,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>205</v>
+      </c>
+      <c r="C177" t="n">
         <v>203</v>
       </c>
-      <c r="C177" t="n">
-        <v>206</v>
-      </c>
       <c r="D177" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E177" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F177" t="n">
-        <v>10205.7757</v>
+        <v>24000</v>
       </c>
       <c r="G177" t="n">
-        <v>204.5</v>
+        <v>212.1666666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6897,22 +7105,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C178" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D178" t="n">
         <v>206</v>
       </c>
       <c r="E178" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F178" t="n">
-        <v>4727.7821</v>
+        <v>10205.7757</v>
       </c>
       <c r="G178" t="n">
-        <v>205.5</v>
+        <v>212.0166666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6936,22 +7144,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C179" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D179" t="n">
         <v>206</v>
       </c>
       <c r="E179" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F179" t="n">
-        <v>447.8982</v>
+        <v>4727.7821</v>
       </c>
       <c r="G179" t="n">
-        <v>205.5</v>
+        <v>211.8666666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6978,19 +7186,19 @@
         <v>206</v>
       </c>
       <c r="C180" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D180" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E180" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F180" t="n">
-        <v>20003</v>
+        <v>447.8982</v>
       </c>
       <c r="G180" t="n">
-        <v>206.5</v>
+        <v>211.7333333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7014,32 +7222,30 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C181" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D181" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E181" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F181" t="n">
-        <v>10498.1125</v>
+        <v>20003</v>
       </c>
       <c r="G181" t="n">
-        <v>206</v>
+        <v>211.6166666666667</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>207</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -7055,32 +7261,30 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C182" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D182" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E182" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F182" t="n">
-        <v>14682.4379943128</v>
+        <v>10498.1125</v>
       </c>
       <c r="G182" t="n">
-        <v>208</v>
+        <v>211.4833333333333</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>205</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
@@ -7096,32 +7300,30 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C183" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D183" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E183" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F183" t="n">
-        <v>5521.1471</v>
+        <v>14682.4379943128</v>
       </c>
       <c r="G183" t="n">
-        <v>209.5</v>
+        <v>211.4166666666667</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>211</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
@@ -7149,10 +7351,10 @@
         <v>208</v>
       </c>
       <c r="F184" t="n">
-        <v>849.3051</v>
+        <v>5521.1471</v>
       </c>
       <c r="G184" t="n">
-        <v>208</v>
+        <v>211.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7176,22 +7378,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C185" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D185" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E185" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F185" t="n">
-        <v>870.7202</v>
+        <v>849.3051</v>
       </c>
       <c r="G185" t="n">
-        <v>207.5</v>
+        <v>211.1833333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7215,22 +7417,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C186" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D186" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E186" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F186" t="n">
-        <v>5071.5397</v>
+        <v>870.7202</v>
       </c>
       <c r="G186" t="n">
-        <v>207.5</v>
+        <v>211.0666666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7254,32 +7456,30 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C187" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D187" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E187" t="n">
         <v>205</v>
       </c>
       <c r="F187" t="n">
-        <v>636.8146</v>
+        <v>5071.5397</v>
       </c>
       <c r="G187" t="n">
-        <v>206.5</v>
+        <v>210.9833333333333</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>208</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
@@ -7295,32 +7495,30 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C188" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D188" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E188" t="n">
         <v>205</v>
       </c>
       <c r="F188" t="n">
-        <v>10287.208925</v>
+        <v>636.8146</v>
       </c>
       <c r="G188" t="n">
-        <v>206.5</v>
+        <v>210.8666666666667</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>205</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
@@ -7336,7 +7534,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C189" t="n">
         <v>208</v>
@@ -7345,23 +7543,21 @@
         <v>208</v>
       </c>
       <c r="E189" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F189" t="n">
-        <v>428.1406</v>
+        <v>10287.208925</v>
       </c>
       <c r="G189" t="n">
-        <v>208</v>
+        <v>210.75</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>208</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
@@ -7377,32 +7573,30 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C190" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D190" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E190" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F190" t="n">
-        <v>108.9757</v>
+        <v>428.1406</v>
       </c>
       <c r="G190" t="n">
-        <v>207</v>
+        <v>210.7</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>208</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
@@ -7430,20 +7624,18 @@
         <v>206</v>
       </c>
       <c r="F191" t="n">
-        <v>76.9952</v>
+        <v>108.9757</v>
       </c>
       <c r="G191" t="n">
-        <v>206</v>
+        <v>210.6</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>206</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
@@ -7462,29 +7654,27 @@
         <v>206</v>
       </c>
       <c r="C192" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D192" t="n">
         <v>206</v>
       </c>
       <c r="E192" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F192" t="n">
-        <v>2331.4579</v>
+        <v>76.9952</v>
       </c>
       <c r="G192" t="n">
-        <v>205.5</v>
+        <v>210.5166666666667</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>206</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
@@ -7500,22 +7690,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C193" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D193" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E193" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F193" t="n">
-        <v>16.9757</v>
+        <v>2331.4579</v>
       </c>
       <c r="G193" t="n">
-        <v>206</v>
+        <v>210.3833333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7551,10 +7741,10 @@
         <v>207</v>
       </c>
       <c r="F194" t="n">
-        <v>13.9884</v>
+        <v>16.9757</v>
       </c>
       <c r="G194" t="n">
-        <v>207</v>
+        <v>210.2833333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7578,22 +7768,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C195" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D195" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E195" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F195" t="n">
-        <v>5944.8893</v>
+        <v>13.9884</v>
       </c>
       <c r="G195" t="n">
-        <v>205.5</v>
+        <v>210.1833333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7617,22 +7807,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C196" t="n">
         <v>204</v>
       </c>
       <c r="D196" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E196" t="n">
         <v>204</v>
       </c>
       <c r="F196" t="n">
-        <v>414.1522</v>
+        <v>5944.8893</v>
       </c>
       <c r="G196" t="n">
-        <v>204</v>
+        <v>210.05</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7659,29 +7849,27 @@
         <v>204</v>
       </c>
       <c r="C197" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D197" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E197" t="n">
         <v>204</v>
       </c>
       <c r="F197" t="n">
-        <v>258.6792</v>
+        <v>414.1522</v>
       </c>
       <c r="G197" t="n">
-        <v>204.5</v>
+        <v>209.9</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>204</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
@@ -7700,19 +7888,19 @@
         <v>204</v>
       </c>
       <c r="C198" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D198" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E198" t="n">
         <v>204</v>
       </c>
       <c r="F198" t="n">
-        <v>1111.0283</v>
+        <v>258.6792</v>
       </c>
       <c r="G198" t="n">
-        <v>204.5</v>
+        <v>209.7666666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7739,29 +7927,27 @@
         <v>204</v>
       </c>
       <c r="C199" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D199" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E199" t="n">
         <v>204</v>
       </c>
       <c r="F199" t="n">
-        <v>5021.2086</v>
+        <v>1111.0283</v>
       </c>
       <c r="G199" t="n">
-        <v>204.5</v>
+        <v>209.6333333333333</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>204</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
@@ -7777,7 +7963,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C200" t="n">
         <v>205</v>
@@ -7786,23 +7972,21 @@
         <v>205</v>
       </c>
       <c r="E200" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F200" t="n">
-        <v>26106.4919</v>
+        <v>5021.2086</v>
       </c>
       <c r="G200" t="n">
-        <v>205</v>
+        <v>209.4833333333333</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>205</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
@@ -7821,29 +8005,27 @@
         <v>205</v>
       </c>
       <c r="C201" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D201" t="n">
         <v>205</v>
       </c>
       <c r="E201" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F201" t="n">
-        <v>6927.0676</v>
+        <v>26106.4919</v>
       </c>
       <c r="G201" t="n">
-        <v>204.5</v>
+        <v>209.3666666666667</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>205</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
@@ -7859,32 +8041,30 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C202" t="n">
         <v>204</v>
       </c>
       <c r="D202" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E202" t="n">
         <v>204</v>
       </c>
       <c r="F202" t="n">
-        <v>3790.6029</v>
+        <v>6927.0676</v>
       </c>
       <c r="G202" t="n">
-        <v>204</v>
+        <v>209.2</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>204</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
@@ -7912,20 +8092,18 @@
         <v>204</v>
       </c>
       <c r="F203" t="n">
-        <v>1821.9345</v>
+        <v>3790.6029</v>
       </c>
       <c r="G203" t="n">
-        <v>204</v>
+        <v>209.0333333333333</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>204</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
@@ -7953,20 +8131,18 @@
         <v>204</v>
       </c>
       <c r="F204" t="n">
-        <v>4225.4316</v>
+        <v>1821.9345</v>
       </c>
       <c r="G204" t="n">
-        <v>204</v>
+        <v>208.8833333333333</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>204</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
@@ -7982,32 +8158,30 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C205" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D205" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E205" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F205" t="n">
-        <v>10009.4109</v>
+        <v>4225.4316</v>
       </c>
       <c r="G205" t="n">
-        <v>204.5</v>
+        <v>208.7166666666667</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>204</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
@@ -8035,20 +8209,18 @@
         <v>205</v>
       </c>
       <c r="F206" t="n">
-        <v>8920.4031</v>
+        <v>10009.4109</v>
       </c>
       <c r="G206" t="n">
-        <v>205</v>
+        <v>208.5666666666667</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>205</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
@@ -8076,20 +8248,18 @@
         <v>205</v>
       </c>
       <c r="F207" t="n">
-        <v>10302.09882682927</v>
+        <v>8920.4031</v>
       </c>
       <c r="G207" t="n">
-        <v>205</v>
+        <v>208.45</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>205</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
@@ -8117,20 +8287,18 @@
         <v>205</v>
       </c>
       <c r="F208" t="n">
-        <v>26353.6438</v>
+        <v>10302.09882682927</v>
       </c>
       <c r="G208" t="n">
-        <v>205</v>
+        <v>208.3333333333333</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>205</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
@@ -8158,10 +8326,10 @@
         <v>205</v>
       </c>
       <c r="F209" t="n">
-        <v>9418.8287</v>
+        <v>26353.6438</v>
       </c>
       <c r="G209" t="n">
-        <v>205</v>
+        <v>208.1833333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8197,10 +8365,10 @@
         <v>205</v>
       </c>
       <c r="F210" t="n">
-        <v>203.115</v>
+        <v>9418.8287</v>
       </c>
       <c r="G210" t="n">
-        <v>205</v>
+        <v>208.0666666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8236,10 +8404,10 @@
         <v>205</v>
       </c>
       <c r="F211" t="n">
-        <v>2680.496473170732</v>
+        <v>203.115</v>
       </c>
       <c r="G211" t="n">
-        <v>205</v>
+        <v>207.9166666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8263,22 +8431,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C212" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D212" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E212" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F212" t="n">
-        <v>3</v>
+        <v>2680.496473170732</v>
       </c>
       <c r="G212" t="n">
-        <v>207</v>
+        <v>207.7666666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8314,10 +8482,10 @@
         <v>209</v>
       </c>
       <c r="F213" t="n">
-        <v>83.89239999999999</v>
+        <v>3</v>
       </c>
       <c r="G213" t="n">
-        <v>209</v>
+        <v>207.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8353,10 +8521,10 @@
         <v>209</v>
       </c>
       <c r="F214" t="n">
-        <v>7104.8328</v>
+        <v>83.89239999999999</v>
       </c>
       <c r="G214" t="n">
-        <v>209</v>
+        <v>207.6333333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8392,10 +8560,10 @@
         <v>209</v>
       </c>
       <c r="F215" t="n">
-        <v>1089.268</v>
+        <v>7104.8328</v>
       </c>
       <c r="G215" t="n">
-        <v>209</v>
+        <v>207.5666666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8431,10 +8599,10 @@
         <v>209</v>
       </c>
       <c r="F216" t="n">
-        <v>3241.044699043062</v>
+        <v>1089.268</v>
       </c>
       <c r="G216" t="n">
-        <v>209</v>
+        <v>207.5333333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8470,10 +8638,10 @@
         <v>209</v>
       </c>
       <c r="F217" t="n">
-        <v>1996.8565</v>
+        <v>3241.044699043062</v>
       </c>
       <c r="G217" t="n">
-        <v>209</v>
+        <v>207.4666666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8509,10 +8677,10 @@
         <v>209</v>
       </c>
       <c r="F218" t="n">
-        <v>25.1858</v>
+        <v>1996.8565</v>
       </c>
       <c r="G218" t="n">
-        <v>209</v>
+        <v>207.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8536,7 +8704,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C219" t="n">
         <v>209</v>
@@ -8545,13 +8713,13 @@
         <v>209</v>
       </c>
       <c r="E219" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F219" t="n">
-        <v>388.2141</v>
+        <v>25.1858</v>
       </c>
       <c r="G219" t="n">
-        <v>209</v>
+        <v>207.3166666666667</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8575,7 +8743,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C220" t="n">
         <v>209</v>
@@ -8584,13 +8752,13 @@
         <v>209</v>
       </c>
       <c r="E220" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F220" t="n">
-        <v>181.4033</v>
+        <v>388.2141</v>
       </c>
       <c r="G220" t="n">
-        <v>209</v>
+        <v>207.2666666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8626,10 +8794,10 @@
         <v>209</v>
       </c>
       <c r="F221" t="n">
-        <v>3787.8885</v>
+        <v>181.4033</v>
       </c>
       <c r="G221" t="n">
-        <v>209</v>
+        <v>207.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8665,10 +8833,10 @@
         <v>209</v>
       </c>
       <c r="F222" t="n">
-        <v>2954.4682</v>
+        <v>3787.8885</v>
       </c>
       <c r="G222" t="n">
-        <v>209</v>
+        <v>207.15</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8704,10 +8872,10 @@
         <v>209</v>
       </c>
       <c r="F223" t="n">
-        <v>228.1086</v>
+        <v>2954.4682</v>
       </c>
       <c r="G223" t="n">
-        <v>209</v>
+        <v>207.1333333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8743,10 +8911,10 @@
         <v>209</v>
       </c>
       <c r="F224" t="n">
-        <v>90.9742</v>
+        <v>228.1086</v>
       </c>
       <c r="G224" t="n">
-        <v>209</v>
+        <v>207.05</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8770,22 +8938,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C225" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D225" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E225" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F225" t="n">
-        <v>125.5489</v>
+        <v>90.9742</v>
       </c>
       <c r="G225" t="n">
-        <v>208</v>
+        <v>206.9833333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8812,19 +8980,19 @@
         <v>207</v>
       </c>
       <c r="C226" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D226" t="n">
         <v>207</v>
       </c>
       <c r="E226" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F226" t="n">
-        <v>6610.5182</v>
+        <v>125.5489</v>
       </c>
       <c r="G226" t="n">
-        <v>206</v>
+        <v>206.8666666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8848,22 +9016,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C227" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D227" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E227" t="n">
         <v>205</v>
       </c>
       <c r="F227" t="n">
-        <v>2470.6981</v>
+        <v>6610.5182</v>
       </c>
       <c r="G227" t="n">
-        <v>207</v>
+        <v>206.7666666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8887,7 +9055,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C228" t="n">
         <v>209</v>
@@ -8896,13 +9064,13 @@
         <v>209</v>
       </c>
       <c r="E228" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F228" t="n">
-        <v>309.5456</v>
+        <v>2470.6981</v>
       </c>
       <c r="G228" t="n">
-        <v>209</v>
+        <v>206.75</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8929,19 +9097,19 @@
         <v>209</v>
       </c>
       <c r="C229" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D229" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E229" t="n">
         <v>209</v>
       </c>
       <c r="F229" t="n">
-        <v>4108.1724</v>
+        <v>309.5456</v>
       </c>
       <c r="G229" t="n">
-        <v>209.5</v>
+        <v>206.7333333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8965,22 +9133,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C230" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D230" t="n">
+        <v>210</v>
+      </c>
+      <c r="E230" t="n">
         <v>209</v>
       </c>
-      <c r="E230" t="n">
-        <v>208</v>
-      </c>
       <c r="F230" t="n">
-        <v>1652.1176</v>
+        <v>4108.1724</v>
       </c>
       <c r="G230" t="n">
-        <v>209</v>
+        <v>206.7333333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9007,7 +9175,7 @@
         <v>208</v>
       </c>
       <c r="C231" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D231" t="n">
         <v>209</v>
@@ -9016,10 +9184,10 @@
         <v>208</v>
       </c>
       <c r="F231" t="n">
-        <v>7204.8328</v>
+        <v>1652.1176</v>
       </c>
       <c r="G231" t="n">
-        <v>208.5</v>
+        <v>206.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9043,7 +9211,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C232" t="n">
         <v>209</v>
@@ -9052,13 +9220,13 @@
         <v>209</v>
       </c>
       <c r="E232" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F232" t="n">
-        <v>241.0302</v>
+        <v>7204.8328</v>
       </c>
       <c r="G232" t="n">
-        <v>209</v>
+        <v>206.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9082,22 +9250,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C233" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D233" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E233" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F233" t="n">
-        <v>2246.1802</v>
+        <v>241.0302</v>
       </c>
       <c r="G233" t="n">
-        <v>209.5</v>
+        <v>206.6833333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9133,10 +9301,10 @@
         <v>210</v>
       </c>
       <c r="F234" t="n">
-        <v>2408.3672</v>
+        <v>2246.1802</v>
       </c>
       <c r="G234" t="n">
-        <v>210</v>
+        <v>206.7333333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9163,19 +9331,19 @@
         <v>210</v>
       </c>
       <c r="C235" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D235" t="n">
         <v>210</v>
       </c>
       <c r="E235" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F235" t="n">
-        <v>12251.9207</v>
+        <v>2408.3672</v>
       </c>
       <c r="G235" t="n">
-        <v>209.5</v>
+        <v>206.8833333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9199,22 +9367,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C236" t="n">
         <v>209</v>
       </c>
       <c r="D236" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E236" t="n">
         <v>209</v>
       </c>
       <c r="F236" t="n">
-        <v>2153.2453</v>
+        <v>12251.9207</v>
       </c>
       <c r="G236" t="n">
-        <v>209</v>
+        <v>206.9333333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9250,10 +9418,10 @@
         <v>209</v>
       </c>
       <c r="F237" t="n">
-        <v>23526.8792</v>
+        <v>2153.2453</v>
       </c>
       <c r="G237" t="n">
-        <v>209</v>
+        <v>207.0333333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9289,10 +9457,10 @@
         <v>209</v>
       </c>
       <c r="F238" t="n">
-        <v>44.1735</v>
+        <v>23526.8792</v>
       </c>
       <c r="G238" t="n">
-        <v>209</v>
+        <v>207.0833333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9328,10 +9496,10 @@
         <v>209</v>
       </c>
       <c r="F239" t="n">
-        <v>23.9641</v>
+        <v>44.1735</v>
       </c>
       <c r="G239" t="n">
-        <v>209</v>
+        <v>207.15</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9355,22 +9523,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C240" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D240" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E240" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F240" t="n">
-        <v>2486.203</v>
+        <v>23.9641</v>
       </c>
       <c r="G240" t="n">
-        <v>207.5</v>
+        <v>207.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9394,22 +9562,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C241" t="n">
         <v>206</v>
       </c>
       <c r="D241" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E241" t="n">
         <v>206</v>
       </c>
       <c r="F241" t="n">
-        <v>23321.0605</v>
+        <v>2486.203</v>
       </c>
       <c r="G241" t="n">
-        <v>206</v>
+        <v>207.1833333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9433,22 +9601,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C242" t="n">
         <v>206</v>
       </c>
       <c r="D242" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E242" t="n">
         <v>206</v>
       </c>
       <c r="F242" t="n">
-        <v>309.5456</v>
+        <v>23321.0605</v>
       </c>
       <c r="G242" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9475,19 +9643,19 @@
         <v>206</v>
       </c>
       <c r="C243" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D243" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E243" t="n">
         <v>206</v>
       </c>
       <c r="F243" t="n">
-        <v>2383.420285507246</v>
+        <v>309.5456</v>
       </c>
       <c r="G243" t="n">
-        <v>206.5</v>
+        <v>207.1166666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9511,7 +9679,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C244" t="n">
         <v>207</v>
@@ -9520,13 +9688,13 @@
         <v>207</v>
       </c>
       <c r="E244" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F244" t="n">
-        <v>2345.739130434783</v>
+        <v>2383.420285507246</v>
       </c>
       <c r="G244" t="n">
-        <v>207</v>
+        <v>207.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9550,22 +9718,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C245" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D245" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E245" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F245" t="n">
-        <v>78.7467</v>
+        <v>2345.739130434783</v>
       </c>
       <c r="G245" t="n">
-        <v>206</v>
+        <v>207.0833333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9601,10 +9769,10 @@
         <v>205</v>
       </c>
       <c r="F246" t="n">
-        <v>1587.5408</v>
+        <v>78.7467</v>
       </c>
       <c r="G246" t="n">
-        <v>205</v>
+        <v>207.05</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9631,19 +9799,19 @@
         <v>205</v>
       </c>
       <c r="C247" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D247" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E247" t="n">
         <v>205</v>
       </c>
       <c r="F247" t="n">
-        <v>5923.488754589372</v>
+        <v>1587.5408</v>
       </c>
       <c r="G247" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9670,19 +9838,19 @@
         <v>205</v>
       </c>
       <c r="C248" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D248" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E248" t="n">
         <v>205</v>
       </c>
       <c r="F248" t="n">
-        <v>1996.8565</v>
+        <v>5923.488754589372</v>
       </c>
       <c r="G248" t="n">
-        <v>206</v>
+        <v>207.0333333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9718,10 +9886,10 @@
         <v>205</v>
       </c>
       <c r="F249" t="n">
-        <v>1463.4983</v>
+        <v>1996.8565</v>
       </c>
       <c r="G249" t="n">
-        <v>205</v>
+        <v>206.9833333333333</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9745,22 +9913,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C250" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D250" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E250" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F250" t="n">
-        <v>9548.226199999999</v>
+        <v>1463.4983</v>
       </c>
       <c r="G250" t="n">
-        <v>204.5</v>
+        <v>206.9333333333333</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9784,22 +9952,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C251" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D251" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E251" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F251" t="n">
-        <v>3</v>
+        <v>9548.226199999999</v>
       </c>
       <c r="G251" t="n">
-        <v>204.5</v>
+        <v>206.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9835,10 +10003,10 @@
         <v>205</v>
       </c>
       <c r="F252" t="n">
-        <v>11501.0017</v>
+        <v>3</v>
       </c>
       <c r="G252" t="n">
-        <v>205</v>
+        <v>206.8833333333333</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9865,19 +10033,19 @@
         <v>205</v>
       </c>
       <c r="C253" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D253" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E253" t="n">
         <v>205</v>
       </c>
       <c r="F253" t="n">
-        <v>9431.5195</v>
+        <v>11501.0017</v>
       </c>
       <c r="G253" t="n">
-        <v>206</v>
+        <v>206.8833333333333</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9901,7 +10069,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C254" t="n">
         <v>207</v>
@@ -9910,13 +10078,13 @@
         <v>207</v>
       </c>
       <c r="E254" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F254" t="n">
-        <v>328.826</v>
+        <v>9431.5195</v>
       </c>
       <c r="G254" t="n">
-        <v>207</v>
+        <v>206.8833333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9940,7 +10108,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C255" t="n">
         <v>207</v>
@@ -9949,13 +10117,13 @@
         <v>207</v>
       </c>
       <c r="E255" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F255" t="n">
-        <v>16712.084</v>
+        <v>328.826</v>
       </c>
       <c r="G255" t="n">
-        <v>207</v>
+        <v>206.8833333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9982,19 +10150,19 @@
         <v>205</v>
       </c>
       <c r="C256" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D256" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E256" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F256" t="n">
-        <v>5</v>
+        <v>16712.084</v>
       </c>
       <c r="G256" t="n">
-        <v>206</v>
+        <v>206.9333333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -10030,10 +10198,10 @@
         <v>205</v>
       </c>
       <c r="F257" t="n">
-        <v>282.7319</v>
+        <v>5</v>
       </c>
       <c r="G257" t="n">
-        <v>205</v>
+        <v>206.95</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10060,19 +10228,19 @@
         <v>205</v>
       </c>
       <c r="C258" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D258" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E258" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F258" t="n">
-        <v>26433.84896763285</v>
+        <v>282.7319</v>
       </c>
       <c r="G258" t="n">
-        <v>204.5</v>
+        <v>206.95</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10096,22 +10264,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C259" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D259" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E259" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F259" t="n">
-        <v>1511.4179</v>
+        <v>26433.84896763285</v>
       </c>
       <c r="G259" t="n">
-        <v>203.5</v>
+        <v>206.95</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10135,22 +10303,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C260" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D260" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E260" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F260" t="n">
-        <v>3000.7016</v>
+        <v>1511.4179</v>
       </c>
       <c r="G260" t="n">
-        <v>203.5</v>
+        <v>206.9166666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10183,13 +10351,13 @@
         <v>204</v>
       </c>
       <c r="E261" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F261" t="n">
-        <v>11728.826</v>
+        <v>3000.7016</v>
       </c>
       <c r="G261" t="n">
-        <v>204</v>
+        <v>206.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10213,32 +10381,30 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C262" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D262" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E262" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F262" t="n">
-        <v>9717.355799999999</v>
+        <v>11728.826</v>
       </c>
       <c r="G262" t="n">
-        <v>205.5</v>
+        <v>206.9</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>204</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
@@ -10254,7 +10420,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C263" t="n">
         <v>207</v>
@@ -10263,23 +10429,21 @@
         <v>207</v>
       </c>
       <c r="E263" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F263" t="n">
-        <v>86.16800000000001</v>
+        <v>9717.355799999999</v>
       </c>
       <c r="G263" t="n">
-        <v>207</v>
+        <v>206.95</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>207</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
@@ -10295,22 +10459,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C264" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D264" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E264" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F264" t="n">
-        <v>5348.749</v>
+        <v>86.16800000000001</v>
       </c>
       <c r="G264" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10334,22 +10498,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C265" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D265" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E265" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F265" t="n">
-        <v>3</v>
+        <v>5348.749</v>
       </c>
       <c r="G265" t="n">
-        <v>206</v>
+        <v>207.0166666666667</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10385,10 +10549,10 @@
         <v>207</v>
       </c>
       <c r="F266" t="n">
-        <v>1910.863</v>
+        <v>3</v>
       </c>
       <c r="G266" t="n">
-        <v>207</v>
+        <v>207.05</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10412,22 +10576,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C267" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D267" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E267" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F267" t="n">
-        <v>4874.2314</v>
+        <v>1910.863</v>
       </c>
       <c r="G267" t="n">
-        <v>206</v>
+        <v>207.0833333333333</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10451,22 +10615,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
+        <v>206</v>
+      </c>
+      <c r="C268" t="n">
         <v>205</v>
       </c>
-      <c r="C268" t="n">
-        <v>207</v>
-      </c>
       <c r="D268" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E268" t="n">
         <v>205</v>
       </c>
       <c r="F268" t="n">
-        <v>153.5012</v>
+        <v>4874.2314</v>
       </c>
       <c r="G268" t="n">
-        <v>206</v>
+        <v>207.0833333333333</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10490,22 +10654,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
+        <v>205</v>
+      </c>
+      <c r="C269" t="n">
         <v>207</v>
       </c>
-      <c r="C269" t="n">
-        <v>208</v>
-      </c>
       <c r="D269" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E269" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F269" t="n">
-        <v>10264.6443</v>
+        <v>153.5012</v>
       </c>
       <c r="G269" t="n">
-        <v>207.5</v>
+        <v>207.1166666666667</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10529,22 +10693,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C270" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D270" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E270" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F270" t="n">
-        <v>7816.33</v>
+        <v>10264.6443</v>
       </c>
       <c r="G270" t="n">
-        <v>209</v>
+        <v>207.1666666666667</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10571,19 +10735,19 @@
         <v>209</v>
       </c>
       <c r="C271" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D271" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E271" t="n">
         <v>209</v>
       </c>
       <c r="F271" t="n">
-        <v>344.4752</v>
+        <v>7816.33</v>
       </c>
       <c r="G271" t="n">
-        <v>209.5</v>
+        <v>207.25</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10607,22 +10771,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C272" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D272" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E272" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F272" t="n">
-        <v>161.3749</v>
+        <v>344.4752</v>
       </c>
       <c r="G272" t="n">
-        <v>208.5</v>
+        <v>207.3166666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10649,19 +10813,19 @@
         <v>208</v>
       </c>
       <c r="C273" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D273" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E273" t="n">
         <v>208</v>
       </c>
       <c r="F273" t="n">
-        <v>1000</v>
+        <v>161.3749</v>
       </c>
       <c r="G273" t="n">
-        <v>208.5</v>
+        <v>207.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10685,7 +10849,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C274" t="n">
         <v>209</v>
@@ -10694,13 +10858,13 @@
         <v>209</v>
       </c>
       <c r="E274" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F274" t="n">
-        <v>931.0217</v>
+        <v>1000</v>
       </c>
       <c r="G274" t="n">
-        <v>209</v>
+        <v>207.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10724,22 +10888,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C275" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D275" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E275" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F275" t="n">
-        <v>4632.7317</v>
+        <v>931.0217</v>
       </c>
       <c r="G275" t="n">
-        <v>207.5</v>
+        <v>207.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10763,22 +10927,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C276" t="n">
         <v>206</v>
       </c>
       <c r="D276" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E276" t="n">
         <v>206</v>
       </c>
       <c r="F276" t="n">
-        <v>170.9061</v>
+        <v>4632.7317</v>
       </c>
       <c r="G276" t="n">
-        <v>206</v>
+        <v>207.25</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10802,22 +10966,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C277" t="n">
         <v>206</v>
       </c>
       <c r="D277" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E277" t="n">
         <v>206</v>
       </c>
       <c r="F277" t="n">
-        <v>336.1447</v>
+        <v>170.9061</v>
       </c>
       <c r="G277" t="n">
-        <v>206</v>
+        <v>207.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10844,19 +11008,19 @@
         <v>207</v>
       </c>
       <c r="C278" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D278" t="n">
         <v>207</v>
       </c>
       <c r="E278" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F278" t="n">
-        <v>3</v>
+        <v>336.1447</v>
       </c>
       <c r="G278" t="n">
-        <v>206.5</v>
+        <v>207.15</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10880,22 +11044,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C279" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D279" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E279" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F279" t="n">
-        <v>17.4594</v>
+        <v>3</v>
       </c>
       <c r="G279" t="n">
-        <v>208</v>
+        <v>207.1166666666667</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10919,22 +11083,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C280" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D280" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E280" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F280" t="n">
-        <v>96.81829999999999</v>
+        <v>17.4594</v>
       </c>
       <c r="G280" t="n">
-        <v>208.5</v>
+        <v>207.1166666666667</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10961,19 +11125,19 @@
         <v>208</v>
       </c>
       <c r="C281" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D281" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E281" t="n">
         <v>208</v>
       </c>
       <c r="F281" t="n">
-        <v>12537.8816</v>
+        <v>96.81829999999999</v>
       </c>
       <c r="G281" t="n">
-        <v>209.5</v>
+        <v>207.1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10997,22 +11161,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C282" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D282" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E282" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F282" t="n">
-        <v>501.8002</v>
+        <v>12537.8816</v>
       </c>
       <c r="G282" t="n">
-        <v>210.5</v>
+        <v>207.1333333333333</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -11039,19 +11203,19 @@
         <v>210</v>
       </c>
       <c r="C283" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D283" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E283" t="n">
         <v>210</v>
       </c>
       <c r="F283" t="n">
-        <v>13167.3743</v>
+        <v>501.8002</v>
       </c>
       <c r="G283" t="n">
-        <v>211</v>
+        <v>207.15</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -11075,7 +11239,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C284" t="n">
         <v>212</v>
@@ -11084,13 +11248,13 @@
         <v>212</v>
       </c>
       <c r="E284" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F284" t="n">
-        <v>679.4930000000001</v>
+        <v>13167.3743</v>
       </c>
       <c r="G284" t="n">
-        <v>212</v>
+        <v>207.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -11114,22 +11278,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C285" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D285" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E285" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F285" t="n">
-        <v>14546.2631</v>
+        <v>679.4930000000001</v>
       </c>
       <c r="G285" t="n">
-        <v>211</v>
+        <v>207.25</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -11153,22 +11317,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C286" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D286" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E286" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F286" t="n">
-        <v>3</v>
+        <v>14546.2631</v>
       </c>
       <c r="G286" t="n">
-        <v>211</v>
+        <v>207.3</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -11204,10 +11368,10 @@
         <v>212</v>
       </c>
       <c r="F287" t="n">
-        <v>1475.9865</v>
+        <v>3</v>
       </c>
       <c r="G287" t="n">
-        <v>212</v>
+        <v>207.4166666666667</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -11231,22 +11395,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C288" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D288" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E288" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F288" t="n">
-        <v>5705.8289</v>
+        <v>1475.9865</v>
       </c>
       <c r="G288" t="n">
-        <v>211.5</v>
+        <v>207.4666666666667</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -11270,7 +11434,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C289" t="n">
         <v>211</v>
@@ -11279,13 +11443,13 @@
         <v>211</v>
       </c>
       <c r="E289" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F289" t="n">
-        <v>826.5439</v>
+        <v>5705.8289</v>
       </c>
       <c r="G289" t="n">
-        <v>211</v>
+        <v>207.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -11309,22 +11473,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C290" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D290" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E290" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F290" t="n">
-        <v>744.6041</v>
+        <v>826.5439</v>
       </c>
       <c r="G290" t="n">
-        <v>210.5</v>
+        <v>207.5166666666667</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -11348,22 +11512,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C291" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D291" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E291" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F291" t="n">
-        <v>833.2331</v>
+        <v>744.6041</v>
       </c>
       <c r="G291" t="n">
-        <v>209.5</v>
+        <v>207.55</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11399,10 +11563,10 @@
         <v>209</v>
       </c>
       <c r="F292" t="n">
-        <v>12.9917</v>
+        <v>833.2331</v>
       </c>
       <c r="G292" t="n">
-        <v>209</v>
+        <v>207.55</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11429,19 +11593,19 @@
         <v>209</v>
       </c>
       <c r="C293" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D293" t="n">
         <v>209</v>
       </c>
       <c r="E293" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F293" t="n">
-        <v>16080.9743</v>
+        <v>12.9917</v>
       </c>
       <c r="G293" t="n">
-        <v>208.5</v>
+        <v>207.55</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11457,6 +11621,45 @@
         </is>
       </c>
       <c r="M293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>209</v>
+      </c>
+      <c r="C294" t="n">
+        <v>208</v>
+      </c>
+      <c r="D294" t="n">
+        <v>209</v>
+      </c>
+      <c r="E294" t="n">
+        <v>208</v>
+      </c>
+      <c r="F294" t="n">
+        <v>16080.9743</v>
+      </c>
+      <c r="G294" t="n">
+        <v>207.5166666666667</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M294" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-18 BackTest ICX.xlsx
+++ b/BackTest/2019-11-18 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-593.2889127659587</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1915.032087234041</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>193</v>
@@ -521,9 +521,11 @@
         <v>851.2636872340413</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>195</v>
+      </c>
       <c r="J4" t="n">
         <v>193</v>
       </c>
@@ -560,9 +562,11 @@
         <v>850.2132872340413</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>194</v>
+      </c>
       <c r="J5" t="n">
         <v>193</v>
       </c>
@@ -599,10 +603,14 @@
         <v>840.3734872340414</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>193</v>
+      </c>
+      <c r="J6" t="n">
+        <v>193</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -632,15 +640,19 @@
         <v>843.0564872340414</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>192</v>
       </c>
       <c r="J7" t="n">
-        <v>192</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>193</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,11 +681,13 @@
         <v>531.0849872340414</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>194</v>
+      </c>
       <c r="J8" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -708,50 +722,56 @@
         <v>531.0849872340414</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>193</v>
+      </c>
       <c r="J9" t="n">
-        <v>192</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>193</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>193</v>
+      </c>
+      <c r="C10" t="n">
+        <v>193</v>
+      </c>
+      <c r="D10" t="n">
+        <v>193</v>
+      </c>
+      <c r="E10" t="n">
+        <v>193</v>
+      </c>
+      <c r="F10" t="n">
+        <v>283</v>
+      </c>
+      <c r="G10" t="n">
+        <v>531.0849872340414</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>193</v>
+      </c>
+      <c r="J10" t="n">
+        <v>193</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>193</v>
-      </c>
-      <c r="C10" t="n">
-        <v>193</v>
-      </c>
-      <c r="D10" t="n">
-        <v>193</v>
-      </c>
-      <c r="E10" t="n">
-        <v>193</v>
-      </c>
-      <c r="F10" t="n">
-        <v>283</v>
-      </c>
-      <c r="G10" t="n">
-        <v>531.0849872340414</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -780,11 +800,19 @@
         <v>-5277.273812765959</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>193</v>
+      </c>
+      <c r="J11" t="n">
+        <v>193</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -813,7 +841,7 @@
         <v>-5277.273812765959</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>192</v>
@@ -850,9 +878,11 @@
         <v>-10240.34751276596</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>192</v>
+      </c>
       <c r="J13" t="n">
         <v>192</v>
       </c>
@@ -889,7 +919,7 @@
         <v>-7607.059512765958</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>191</v>
@@ -930,9 +960,11 @@
         <v>-7607.059512765958</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>192</v>
+      </c>
       <c r="J15" t="n">
         <v>192</v>
       </c>
@@ -969,7 +1001,7 @@
         <v>-8739.059512765958</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>192</v>
@@ -1010,9 +1042,11 @@
         <v>-8968.699712765958</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>191</v>
+      </c>
       <c r="J17" t="n">
         <v>192</v>
       </c>
@@ -1049,7 +1083,7 @@
         <v>-7376.581712765957</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>190</v>
@@ -1090,7 +1124,7 @@
         <v>-18708.09171276596</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>191</v>
@@ -1131,7 +1165,7 @@
         <v>-18450.35971276596</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>190</v>
@@ -1172,7 +1206,7 @@
         <v>-23995.26091276596</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>192</v>
@@ -1213,9 +1247,11 @@
         <v>-23992.56091276596</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>190</v>
+      </c>
       <c r="J22" t="n">
         <v>192</v>
       </c>
@@ -1252,7 +1288,7 @@
         <v>-23992.56091276596</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>192</v>
@@ -1293,9 +1329,11 @@
         <v>-37001.37031276595</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>192</v>
+      </c>
       <c r="J24" t="n">
         <v>192</v>
       </c>
@@ -1332,9 +1370,11 @@
         <v>-37001.37031276595</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>191</v>
+      </c>
       <c r="J25" t="n">
         <v>192</v>
       </c>
@@ -1371,9 +1411,11 @@
         <v>-36998.67161276595</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>191</v>
+      </c>
       <c r="J26" t="n">
         <v>192</v>
       </c>
@@ -1410,9 +1452,11 @@
         <v>-37008.67161276595</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>192</v>
+      </c>
       <c r="J27" t="n">
         <v>192</v>
       </c>
@@ -1449,9 +1493,11 @@
         <v>-37008.67161276595</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>191</v>
+      </c>
       <c r="J28" t="n">
         <v>192</v>
       </c>
@@ -1488,7 +1534,7 @@
         <v>-37040.11361276596</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>191</v>
@@ -1529,7 +1575,7 @@
         <v>-97002.86001276596</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>190</v>
@@ -1570,7 +1616,7 @@
         <v>-95482.26231276596</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>189</v>
@@ -1611,7 +1657,7 @@
         <v>-95482.26231276596</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>190</v>
@@ -1652,7 +1698,7 @@
         <v>-95482.26231276596</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>190</v>
@@ -1693,7 +1739,7 @@
         <v>-95482.26231276596</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>190</v>
@@ -1734,7 +1780,7 @@
         <v>-87792.25051276595</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>190</v>
@@ -1775,7 +1821,7 @@
         <v>-90635.67841276595</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>192</v>
@@ -1816,7 +1862,7 @@
         <v>-90635.67841276595</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>190</v>
@@ -1857,7 +1903,7 @@
         <v>-90635.67841276595</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>190</v>
@@ -1898,7 +1944,7 @@
         <v>-90635.67841276595</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>190</v>
@@ -1939,7 +1985,7 @@
         <v>-95806.75221276595</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>190</v>
@@ -1980,7 +2026,7 @@
         <v>-94336.75221276595</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>189</v>
@@ -2021,7 +2067,7 @@
         <v>-94336.75221276595</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>190</v>
@@ -2062,7 +2108,7 @@
         <v>-94336.75221276595</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>190</v>
@@ -2103,7 +2149,7 @@
         <v>-94336.75221276595</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>190</v>
@@ -2144,7 +2190,7 @@
         <v>-96753.76121276595</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>190</v>
@@ -2185,7 +2231,7 @@
         <v>-96753.76121276595</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>189</v>
@@ -2226,7 +2272,7 @@
         <v>-96855.42671276596</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>189</v>
@@ -2267,7 +2313,7 @@
         <v>-95018.74811276596</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>188</v>
@@ -2308,7 +2354,7 @@
         <v>-95018.74811276596</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>190</v>
@@ -2349,7 +2395,7 @@
         <v>-95018.74811276596</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>190</v>
@@ -2390,7 +2436,7 @@
         <v>-95018.74811276596</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>190</v>
@@ -2431,7 +2477,7 @@
         <v>-95018.74811276596</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>190</v>
@@ -2472,7 +2518,7 @@
         <v>97682.60668723405</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>190</v>
@@ -2513,7 +2559,7 @@
         <v>536556.6065872341</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>195</v>
@@ -4153,7 +4199,7 @@
         <v>1707685.517222818</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
@@ -4161,13 +4207,15 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>1.177291666666667</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.020942408376963</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4192,17 +4240,11 @@
         <v>1707685.517222818</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>192</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4231,17 +4273,11 @@
         <v>1715348.722622819</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>192</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4270,17 +4306,11 @@
         <v>1701822.800422819</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>192</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4309,17 +4339,11 @@
         <v>1719897.416822819</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>192</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4348,17 +4372,11 @@
         <v>1719897.416822819</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>192</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4387,17 +4405,11 @@
         <v>1721222.371922818</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>192</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4426,17 +4438,11 @@
         <v>1719667.911922819</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>192</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4465,17 +4471,11 @@
         <v>1619131.052622819</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>192</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4504,17 +4504,11 @@
         <v>1619131.052622819</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>192</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4543,17 +4537,11 @@
         <v>1637005.324222819</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>192</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4582,17 +4570,11 @@
         <v>1561476.282822819</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>192</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4621,17 +4603,11 @@
         <v>1560187.818222819</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>192</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4660,17 +4636,11 @@
         <v>1537890.490622819</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>192</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4699,17 +4669,11 @@
         <v>1522565.722222819</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>192</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4738,17 +4702,11 @@
         <v>1529404.210425102</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>192</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4777,17 +4735,11 @@
         <v>1529404.210425102</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>192</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4816,17 +4768,11 @@
         <v>1537965.583125102</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>192</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4855,17 +4801,11 @@
         <v>1531832.887325102</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>192</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4894,17 +4834,11 @@
         <v>1533173.900725102</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>192</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4933,17 +4867,11 @@
         <v>1533760.813725102</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>192</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4972,17 +4900,11 @@
         <v>1529731.692125102</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>192</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5011,17 +4933,11 @@
         <v>1535692.281525102</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>192</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5050,17 +4966,11 @@
         <v>1535692.281525102</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>192</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5089,17 +4999,11 @@
         <v>1535692.281525102</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>192</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5131,14 +5035,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>192</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5170,14 +5068,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>192</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5209,14 +5101,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>192</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5248,14 +5134,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>192</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5287,14 +5167,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>192</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5326,14 +5200,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>192</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5365,14 +5233,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>192</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5404,14 +5266,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>192</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5443,14 +5299,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>192</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5482,14 +5332,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>192</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5521,14 +5365,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>192</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5560,14 +5398,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>192</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5599,14 +5431,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>192</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5638,14 +5464,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>192</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5677,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>192</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5716,14 +5530,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>192</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5755,14 +5563,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>192</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5791,17 +5593,11 @@
         <v>1451903.903380564</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>192</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5830,17 +5626,11 @@
         <v>1451903.903380564</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>192</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5869,17 +5659,11 @@
         <v>1451903.903380564</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>192</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5908,17 +5692,11 @@
         <v>1441754.136480564</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>192</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5947,17 +5725,11 @@
         <v>1446570.462480564</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>192</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5989,14 +5761,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>192</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6028,14 +5794,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>192</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6067,14 +5827,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>192</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6106,14 +5860,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>192</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6145,14 +5893,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>192</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6184,14 +5926,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>192</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6223,14 +5959,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>192</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6262,14 +5992,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>192</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6301,14 +6025,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>192</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6340,14 +6058,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>192</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6379,14 +6091,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>192</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6418,14 +6124,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>192</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6457,14 +6157,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>192</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6496,14 +6190,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>192</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6535,14 +6223,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>192</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6574,14 +6256,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>192</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6613,14 +6289,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>192</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6652,14 +6322,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>192</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6691,14 +6355,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>192</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6730,14 +6388,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>192</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6769,14 +6421,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>192</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6808,14 +6454,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>192</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6847,14 +6487,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>192</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6883,23 +6517,15 @@
         <v>1432109.612004527</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>192</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>1.125208333333333</v>
-      </c>
-      <c r="M166" t="n">
-        <v>1.020942408376963</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6990,7 +6616,7 @@
         <v>1430815.974004527</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7023,7 +6649,7 @@
         <v>1419401.542604527</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7650,7 +7276,7 @@
         <v>1342111.926704528</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7683,7 +7309,7 @@
         <v>1338117.942104527</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7716,7 +7342,7 @@
         <v>1339646.278104527</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -8277,7 +7903,7 @@
         <v>1351678.245833587</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8310,7 +7936,7 @@
         <v>1352145.535553213</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8343,7 +7969,7 @@
         <v>1352145.535553213</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8376,7 +8002,7 @@
         <v>1351906.373953213</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8409,7 +8035,7 @@
         <v>1351906.373953213</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8442,7 +8068,7 @@
         <v>1351906.373953213</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8475,7 +8101,7 @@
         <v>1332085.017133587</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8508,7 +8134,7 @@
         <v>1337179.271713961</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8541,7 +8167,7 @@
         <v>1337179.271713961</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8706,7 +8332,7 @@
         <v>1285694.632813961</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8772,7 +8398,7 @@
         <v>1285431.461913961</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8805,7 +8431,7 @@
         <v>1285461.326613961</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8937,7 +8563,7 @@
         <v>1280263.116013961</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -10851,7 +10477,7 @@
         <v>1197694.998833274</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10884,7 +10510,7 @@
         <v>1197694.998833274</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10917,7 +10543,7 @@
         <v>1201803.171233274</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10983,7 +10609,7 @@
         <v>1207355.886433274</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11016,7 +10642,7 @@
         <v>1207355.886433274</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11049,7 +10675,7 @@
         <v>1209602.066633274</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11082,7 +10708,7 @@
         <v>1209602.066633274</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11115,7 +10741,7 @@
         <v>1197350.145933274</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11148,7 +10774,7 @@
         <v>1197350.145933274</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11181,7 +10807,7 @@
         <v>1197350.145933274</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11214,7 +10840,7 @@
         <v>1197350.145933274</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11247,7 +10873,7 @@
         <v>1197350.145933274</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11280,7 +10906,7 @@
         <v>1194863.942933274</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11313,7 +10939,7 @@
         <v>1194863.942933274</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11346,7 +10972,7 @@
         <v>1194863.942933274</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11379,7 +11005,7 @@
         <v>1197247.363218782</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11808,7 +11434,7 @@
         <v>1200976.542073371</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12732,7 +12358,7 @@
         <v>1214752.342705739</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12765,7 +12391,7 @@
         <v>1200206.079605739</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12798,7 +12424,7 @@
         <v>1200209.079605739</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12831,7 +12457,7 @@
         <v>1200209.079605739</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12864,7 +12490,7 @@
         <v>1194503.250705739</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12897,7 +12523,7 @@
         <v>1194503.250705739</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12930,7 +12556,7 @@
         <v>1193758.646605739</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12963,7 +12589,7 @@
         <v>1192925.413505739</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12996,7 +12622,7 @@
         <v>1192925.413505739</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13161,7 +12787,7 @@
         <v>1201148.075705739</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13194,7 +12820,7 @@
         <v>1200969.537005739</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13227,7 +12853,7 @@
         <v>1205089.176005739</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13260,7 +12886,7 @@
         <v>1207094.854405739</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13293,7 +12919,7 @@
         <v>1194947.203905739</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13326,7 +12952,7 @@
         <v>1194952.567105739</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13359,7 +12985,7 @@
         <v>1194952.567105739</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13370,6 +12996,6 @@
       <c r="M362" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest ICX.xlsx
+++ b/BackTest/2019-11-18 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-593.2889127659587</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>1915.032087234041</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>193</v>
-      </c>
-      <c r="J3" t="n">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,991 +517,903 @@
         <v>851.2636872340413</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>195</v>
-      </c>
-      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>193</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="C5" t="n">
+        <v>193</v>
+      </c>
+      <c r="D5" t="n">
+        <v>193</v>
+      </c>
+      <c r="E5" t="n">
+        <v>193</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.0504</v>
+      </c>
+      <c r="G5" t="n">
+        <v>850.2132872340413</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>192</v>
+      </c>
+      <c r="C6" t="n">
+        <v>192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>192</v>
+      </c>
+      <c r="E6" t="n">
+        <v>192</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.8398</v>
+      </c>
+      <c r="G6" t="n">
+        <v>840.3734872340414</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>194</v>
+      </c>
+      <c r="C7" t="n">
+        <v>194</v>
+      </c>
+      <c r="D7" t="n">
+        <v>194</v>
+      </c>
+      <c r="E7" t="n">
+        <v>194</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.683</v>
+      </c>
+      <c r="G7" t="n">
+        <v>843.0564872340414</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>193</v>
+      </c>
+      <c r="C8" t="n">
+        <v>193</v>
+      </c>
+      <c r="D8" t="n">
+        <v>193</v>
+      </c>
+      <c r="E8" t="n">
+        <v>193</v>
+      </c>
+      <c r="F8" t="n">
+        <v>311.9715</v>
+      </c>
+      <c r="G8" t="n">
+        <v>531.0849872340414</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>193</v>
+      </c>
+      <c r="C9" t="n">
+        <v>193</v>
+      </c>
+      <c r="D9" t="n">
+        <v>193</v>
+      </c>
+      <c r="E9" t="n">
+        <v>193</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30.9835</v>
+      </c>
+      <c r="G9" t="n">
+        <v>531.0849872340414</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>193</v>
+      </c>
+      <c r="C10" t="n">
+        <v>193</v>
+      </c>
+      <c r="D10" t="n">
+        <v>193</v>
+      </c>
+      <c r="E10" t="n">
+        <v>193</v>
+      </c>
+      <c r="F10" t="n">
+        <v>283</v>
+      </c>
+      <c r="G10" t="n">
+        <v>531.0849872340414</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>192</v>
+      </c>
+      <c r="C11" t="n">
+        <v>192</v>
+      </c>
+      <c r="D11" t="n">
+        <v>192</v>
+      </c>
+      <c r="E11" t="n">
+        <v>192</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5808.3588</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-5277.273812765959</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>192</v>
+      </c>
+      <c r="C12" t="n">
+        <v>192</v>
+      </c>
+      <c r="D12" t="n">
+        <v>192</v>
+      </c>
+      <c r="E12" t="n">
+        <v>192</v>
+      </c>
+      <c r="F12" t="n">
+        <v>123.7266</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-5277.273812765959</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>191</v>
+      </c>
+      <c r="C13" t="n">
+        <v>191</v>
+      </c>
+      <c r="D13" t="n">
+        <v>191</v>
+      </c>
+      <c r="E13" t="n">
+        <v>191</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4963.0737</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-10240.34751276596</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>192</v>
+      </c>
+      <c r="C14" t="n">
+        <v>192</v>
+      </c>
+      <c r="D14" t="n">
+        <v>193</v>
+      </c>
+      <c r="E14" t="n">
+        <v>192</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2633.288</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-7607.059512765958</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>191</v>
+      </c>
+      <c r="J14" t="n">
+        <v>191</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>192</v>
+      </c>
+      <c r="C15" t="n">
+        <v>192</v>
+      </c>
+      <c r="D15" t="n">
+        <v>192</v>
+      </c>
+      <c r="E15" t="n">
+        <v>192</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.5389</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-7607.059512765958</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>192</v>
+      </c>
+      <c r="J15" t="n">
+        <v>191</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>193</v>
-      </c>
-      <c r="C5" t="n">
-        <v>193</v>
-      </c>
-      <c r="D5" t="n">
-        <v>193</v>
-      </c>
-      <c r="E5" t="n">
-        <v>193</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.0504</v>
-      </c>
-      <c r="G5" t="n">
-        <v>850.2132872340413</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>194</v>
-      </c>
-      <c r="J5" t="n">
-        <v>193</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>191</v>
+      </c>
+      <c r="C16" t="n">
+        <v>191</v>
+      </c>
+      <c r="D16" t="n">
+        <v>191</v>
+      </c>
+      <c r="E16" t="n">
+        <v>191</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1132</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-8739.059512765958</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>192</v>
+      </c>
+      <c r="J16" t="n">
+        <v>191</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>192</v>
-      </c>
-      <c r="C6" t="n">
-        <v>192</v>
-      </c>
-      <c r="D6" t="n">
-        <v>192</v>
-      </c>
-      <c r="E6" t="n">
-        <v>192</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9.8398</v>
-      </c>
-      <c r="G6" t="n">
-        <v>840.3734872340414</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>193</v>
-      </c>
-      <c r="J6" t="n">
-        <v>193</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>194</v>
-      </c>
-      <c r="C7" t="n">
-        <v>194</v>
-      </c>
-      <c r="D7" t="n">
-        <v>194</v>
-      </c>
-      <c r="E7" t="n">
-        <v>194</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.683</v>
-      </c>
-      <c r="G7" t="n">
-        <v>843.0564872340414</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>192</v>
-      </c>
-      <c r="J7" t="n">
-        <v>193</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>190</v>
+      </c>
+      <c r="C17" t="n">
+        <v>190</v>
+      </c>
+      <c r="D17" t="n">
+        <v>190</v>
+      </c>
+      <c r="E17" t="n">
+        <v>190</v>
+      </c>
+      <c r="F17" t="n">
+        <v>229.6402</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-8968.699712765958</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>191</v>
+      </c>
+      <c r="J17" t="n">
+        <v>191</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>191</v>
+      </c>
+      <c r="C18" t="n">
+        <v>191</v>
+      </c>
+      <c r="D18" t="n">
+        <v>191</v>
+      </c>
+      <c r="E18" t="n">
+        <v>191</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1592.118</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-7376.581712765957</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>190</v>
+      </c>
+      <c r="J18" t="n">
+        <v>191</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>193</v>
-      </c>
-      <c r="C8" t="n">
-        <v>193</v>
-      </c>
-      <c r="D8" t="n">
-        <v>193</v>
-      </c>
-      <c r="E8" t="n">
-        <v>193</v>
-      </c>
-      <c r="F8" t="n">
-        <v>311.9715</v>
-      </c>
-      <c r="G8" t="n">
-        <v>531.0849872340414</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>194</v>
-      </c>
-      <c r="J8" t="n">
-        <v>193</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>190</v>
+      </c>
+      <c r="C19" t="n">
+        <v>190</v>
+      </c>
+      <c r="D19" t="n">
+        <v>190</v>
+      </c>
+      <c r="E19" t="n">
+        <v>190</v>
+      </c>
+      <c r="F19" t="n">
+        <v>11331.51</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-18708.09171276596</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>191</v>
+      </c>
+      <c r="J19" t="n">
+        <v>191</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>193</v>
-      </c>
-      <c r="C9" t="n">
-        <v>193</v>
-      </c>
-      <c r="D9" t="n">
-        <v>193</v>
-      </c>
-      <c r="E9" t="n">
-        <v>193</v>
-      </c>
-      <c r="F9" t="n">
-        <v>30.9835</v>
-      </c>
-      <c r="G9" t="n">
-        <v>531.0849872340414</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>193</v>
-      </c>
-      <c r="J9" t="n">
-        <v>193</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>193</v>
-      </c>
-      <c r="C10" t="n">
-        <v>193</v>
-      </c>
-      <c r="D10" t="n">
-        <v>193</v>
-      </c>
-      <c r="E10" t="n">
-        <v>193</v>
-      </c>
-      <c r="F10" t="n">
-        <v>283</v>
-      </c>
-      <c r="G10" t="n">
-        <v>531.0849872340414</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>193</v>
-      </c>
-      <c r="J10" t="n">
-        <v>193</v>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>192</v>
+      </c>
+      <c r="C20" t="n">
+        <v>192</v>
+      </c>
+      <c r="D20" t="n">
+        <v>192</v>
+      </c>
+      <c r="E20" t="n">
+        <v>192</v>
+      </c>
+      <c r="F20" t="n">
+        <v>257.732</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-18450.35971276596</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>190</v>
+      </c>
+      <c r="J20" t="n">
+        <v>190</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>190</v>
+      </c>
+      <c r="C21" t="n">
+        <v>190</v>
+      </c>
+      <c r="D21" t="n">
+        <v>190</v>
+      </c>
+      <c r="E21" t="n">
+        <v>190</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5544.9012</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-23995.26091276596</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>192</v>
+      </c>
+      <c r="J21" t="n">
+        <v>190</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
         <v>192</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C22" t="n">
         <v>192</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D22" t="n">
         <v>192</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E22" t="n">
         <v>192</v>
       </c>
-      <c r="F11" t="n">
-        <v>5808.3588</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-5277.273812765959</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>193</v>
-      </c>
-      <c r="J11" t="n">
-        <v>193</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="F22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-23992.56091276596</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>190</v>
+      </c>
+      <c r="J22" t="n">
+        <v>190</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>192</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C23" t="n">
         <v>192</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D23" t="n">
         <v>192</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E23" t="n">
         <v>192</v>
       </c>
-      <c r="F12" t="n">
-        <v>123.7266</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-5277.273812765959</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="F23" t="n">
+        <v>505.0506</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-23992.56091276596</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>192</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J23" t="n">
         <v>192</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>191</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C24" t="n">
         <v>191</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D24" t="n">
         <v>191</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E24" t="n">
         <v>191</v>
       </c>
-      <c r="F13" t="n">
-        <v>4963.0737</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-10240.34751276596</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="F24" t="n">
+        <v>13008.8094</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-37001.37031276595</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>192</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J24" t="n">
         <v>192</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>191</v>
+      </c>
+      <c r="C25" t="n">
+        <v>191</v>
+      </c>
+      <c r="D25" t="n">
+        <v>191</v>
+      </c>
+      <c r="E25" t="n">
+        <v>191</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.8366</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-37001.37031276595</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>191</v>
+      </c>
+      <c r="J25" t="n">
         <v>192</v>
       </c>
-      <c r="C14" t="n">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>192</v>
       </c>
-      <c r="D14" t="n">
-        <v>193</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="C26" t="n">
         <v>192</v>
       </c>
-      <c r="F14" t="n">
-        <v>2633.288</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-7607.059512765958</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="D26" t="n">
+        <v>192</v>
+      </c>
+      <c r="E26" t="n">
+        <v>192</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.6987</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-36998.67161276595</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>191</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J26" t="n">
+        <v>191</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>191</v>
+      </c>
+      <c r="C27" t="n">
+        <v>191</v>
+      </c>
+      <c r="D27" t="n">
+        <v>191</v>
+      </c>
+      <c r="E27" t="n">
+        <v>191</v>
+      </c>
+      <c r="F27" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-37008.67161276595</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>192</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="J27" t="n">
+        <v>191</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>190</v>
+      </c>
+      <c r="C28" t="n">
+        <v>191</v>
+      </c>
+      <c r="D28" t="n">
+        <v>191</v>
+      </c>
+      <c r="E28" t="n">
+        <v>190</v>
+      </c>
+      <c r="F28" t="n">
+        <v>60428.3355</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-37008.67161276595</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>191</v>
+      </c>
+      <c r="J28" t="n">
+        <v>191</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>192</v>
-      </c>
-      <c r="C15" t="n">
-        <v>192</v>
-      </c>
-      <c r="D15" t="n">
-        <v>192</v>
-      </c>
-      <c r="E15" t="n">
-        <v>192</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5.5389</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-7607.059512765958</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>192</v>
-      </c>
-      <c r="J15" t="n">
-        <v>192</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>191</v>
-      </c>
-      <c r="C16" t="n">
-        <v>191</v>
-      </c>
-      <c r="D16" t="n">
-        <v>191</v>
-      </c>
-      <c r="E16" t="n">
-        <v>191</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1132</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-8739.059512765958</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>192</v>
-      </c>
-      <c r="J16" t="n">
-        <v>192</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>190</v>
-      </c>
-      <c r="C17" t="n">
-        <v>190</v>
-      </c>
-      <c r="D17" t="n">
-        <v>190</v>
-      </c>
-      <c r="E17" t="n">
-        <v>190</v>
-      </c>
-      <c r="F17" t="n">
-        <v>229.6402</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-8968.699712765958</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>191</v>
-      </c>
-      <c r="J17" t="n">
-        <v>192</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>191</v>
-      </c>
-      <c r="C18" t="n">
-        <v>191</v>
-      </c>
-      <c r="D18" t="n">
-        <v>191</v>
-      </c>
-      <c r="E18" t="n">
-        <v>191</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1592.118</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-7376.581712765957</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>190</v>
-      </c>
-      <c r="J18" t="n">
-        <v>192</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>190</v>
-      </c>
-      <c r="C19" t="n">
-        <v>190</v>
-      </c>
-      <c r="D19" t="n">
-        <v>190</v>
-      </c>
-      <c r="E19" t="n">
-        <v>190</v>
-      </c>
-      <c r="F19" t="n">
-        <v>11331.51</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-18708.09171276596</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>191</v>
-      </c>
-      <c r="J19" t="n">
-        <v>192</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>192</v>
-      </c>
-      <c r="C20" t="n">
-        <v>192</v>
-      </c>
-      <c r="D20" t="n">
-        <v>192</v>
-      </c>
-      <c r="E20" t="n">
-        <v>192</v>
-      </c>
-      <c r="F20" t="n">
-        <v>257.732</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-18450.35971276596</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>190</v>
-      </c>
-      <c r="J20" t="n">
-        <v>192</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>190</v>
-      </c>
-      <c r="C21" t="n">
-        <v>190</v>
-      </c>
-      <c r="D21" t="n">
-        <v>190</v>
-      </c>
-      <c r="E21" t="n">
-        <v>190</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5544.9012</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-23995.26091276596</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>192</v>
-      </c>
-      <c r="J21" t="n">
-        <v>192</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>192</v>
-      </c>
-      <c r="C22" t="n">
-        <v>192</v>
-      </c>
-      <c r="D22" t="n">
-        <v>192</v>
-      </c>
-      <c r="E22" t="n">
-        <v>192</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-23992.56091276596</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>190</v>
-      </c>
-      <c r="J22" t="n">
-        <v>192</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>192</v>
-      </c>
-      <c r="C23" t="n">
-        <v>192</v>
-      </c>
-      <c r="D23" t="n">
-        <v>192</v>
-      </c>
-      <c r="E23" t="n">
-        <v>192</v>
-      </c>
-      <c r="F23" t="n">
-        <v>505.0506</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-23992.56091276596</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>192</v>
-      </c>
-      <c r="J23" t="n">
-        <v>192</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>191</v>
-      </c>
-      <c r="C24" t="n">
-        <v>191</v>
-      </c>
-      <c r="D24" t="n">
-        <v>191</v>
-      </c>
-      <c r="E24" t="n">
-        <v>191</v>
-      </c>
-      <c r="F24" t="n">
-        <v>13008.8094</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-37001.37031276595</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>192</v>
-      </c>
-      <c r="J24" t="n">
-        <v>192</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>191</v>
-      </c>
-      <c r="C25" t="n">
-        <v>191</v>
-      </c>
-      <c r="D25" t="n">
-        <v>191</v>
-      </c>
-      <c r="E25" t="n">
-        <v>191</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.8366</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-37001.37031276595</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>191</v>
-      </c>
-      <c r="J25" t="n">
-        <v>192</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>192</v>
-      </c>
-      <c r="C26" t="n">
-        <v>192</v>
-      </c>
-      <c r="D26" t="n">
-        <v>192</v>
-      </c>
-      <c r="E26" t="n">
-        <v>192</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.6987</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-36998.67161276595</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>191</v>
-      </c>
-      <c r="J26" t="n">
-        <v>192</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>191</v>
-      </c>
-      <c r="C27" t="n">
-        <v>191</v>
-      </c>
-      <c r="D27" t="n">
-        <v>191</v>
-      </c>
-      <c r="E27" t="n">
-        <v>191</v>
-      </c>
-      <c r="F27" t="n">
-        <v>10</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-37008.67161276595</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>192</v>
-      </c>
-      <c r="J27" t="n">
-        <v>192</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>190</v>
-      </c>
-      <c r="C28" t="n">
-        <v>191</v>
-      </c>
-      <c r="D28" t="n">
-        <v>191</v>
-      </c>
-      <c r="E28" t="n">
-        <v>190</v>
-      </c>
-      <c r="F28" t="n">
-        <v>60428.3355</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-37008.67161276595</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>191</v>
-      </c>
-      <c r="J28" t="n">
-        <v>192</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1540,7 +1448,7 @@
         <v>191</v>
       </c>
       <c r="J29" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1581,7 +1489,7 @@
         <v>190</v>
       </c>
       <c r="J30" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1622,7 +1530,7 @@
         <v>189</v>
       </c>
       <c r="J31" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1663,7 +1571,7 @@
         <v>190</v>
       </c>
       <c r="J32" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1704,7 +1612,7 @@
         <v>190</v>
       </c>
       <c r="J33" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1745,7 +1653,7 @@
         <v>190</v>
       </c>
       <c r="J34" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1786,7 +1694,7 @@
         <v>190</v>
       </c>
       <c r="J35" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1827,7 +1735,7 @@
         <v>192</v>
       </c>
       <c r="J36" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1868,7 +1776,7 @@
         <v>190</v>
       </c>
       <c r="J37" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1909,7 +1817,7 @@
         <v>190</v>
       </c>
       <c r="J38" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1950,7 +1858,7 @@
         <v>190</v>
       </c>
       <c r="J39" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1991,7 +1899,7 @@
         <v>190</v>
       </c>
       <c r="J40" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2032,7 +1940,7 @@
         <v>189</v>
       </c>
       <c r="J41" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2073,7 +1981,7 @@
         <v>190</v>
       </c>
       <c r="J42" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2114,7 +2022,7 @@
         <v>190</v>
       </c>
       <c r="J43" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2155,7 +2063,7 @@
         <v>190</v>
       </c>
       <c r="J44" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2196,7 +2104,7 @@
         <v>190</v>
       </c>
       <c r="J45" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2237,7 +2145,7 @@
         <v>189</v>
       </c>
       <c r="J46" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2278,7 +2186,7 @@
         <v>189</v>
       </c>
       <c r="J47" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2319,7 +2227,7 @@
         <v>188</v>
       </c>
       <c r="J48" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2360,7 +2268,7 @@
         <v>190</v>
       </c>
       <c r="J49" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2401,7 +2309,7 @@
         <v>190</v>
       </c>
       <c r="J50" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2442,7 +2350,7 @@
         <v>190</v>
       </c>
       <c r="J51" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2483,7 +2391,7 @@
         <v>190</v>
       </c>
       <c r="J52" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2524,7 +2432,7 @@
         <v>190</v>
       </c>
       <c r="J53" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2559,13 +2467,11 @@
         <v>536556.6065872341</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2604,7 +2510,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2643,7 +2549,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2682,7 +2588,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2721,7 +2627,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2760,7 +2666,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2795,21 +2701,23 @@
         <v>1092234.118749139</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>1.136361256544503</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.026315789473684</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2834,17 +2742,11 @@
         <v>1010113.701549139</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>192</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2873,17 +2775,11 @@
         <v>1010113.701549139</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>192</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2912,17 +2808,11 @@
         <v>1124957.139749139</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>192</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2951,17 +2841,11 @@
         <v>1221760.183349139</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>192</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2990,17 +2874,11 @@
         <v>1318947.430736858</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>192</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3032,14 +2910,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>192</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3071,14 +2943,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>192</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3110,14 +2976,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>192</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3149,14 +3009,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>192</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3188,14 +3042,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>192</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3227,14 +3075,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>192</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3266,14 +3108,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>192</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3305,14 +3141,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>192</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3344,14 +3174,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>192</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3383,14 +3207,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>192</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3422,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>192</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3461,14 +3273,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>192</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3500,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>192</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3539,14 +3339,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>192</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3578,14 +3372,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>192</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3614,17 +3402,11 @@
         <v>1448349.494208158</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>192</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3653,17 +3435,11 @@
         <v>1499599.805357303</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>192</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3695,14 +3471,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>192</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3734,14 +3504,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>192</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3773,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>192</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3812,14 +3570,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>192</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3851,14 +3603,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>192</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3887,17 +3633,11 @@
         <v>1493663.547292805</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>192</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3929,14 +3669,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>192</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3968,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>192</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4007,14 +3735,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>192</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4046,14 +3768,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>192</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4085,14 +3801,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>192</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4124,14 +3834,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>192</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4163,14 +3867,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>192</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4199,23 +3897,15 @@
         <v>1707685.517222818</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>192</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>1.177291666666667</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.020942408376963</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4240,7 +3930,7 @@
         <v>1707685.517222818</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4273,7 +3963,7 @@
         <v>1715348.722622819</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4306,7 +3996,7 @@
         <v>1701822.800422819</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4339,7 +4029,7 @@
         <v>1719897.416822819</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4372,7 +4062,7 @@
         <v>1719897.416822819</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4405,7 +4095,7 @@
         <v>1721222.371922818</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4438,7 +4128,7 @@
         <v>1719667.911922819</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4471,7 +4161,7 @@
         <v>1619131.052622819</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4504,7 +4194,7 @@
         <v>1619131.052622819</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4537,7 +4227,7 @@
         <v>1637005.324222819</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4570,7 +4260,7 @@
         <v>1561476.282822819</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4603,7 +4293,7 @@
         <v>1560187.818222819</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4636,7 +4326,7 @@
         <v>1537890.490622819</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4669,7 +4359,7 @@
         <v>1522565.722222819</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4702,7 +4392,7 @@
         <v>1529404.210425102</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4735,7 +4425,7 @@
         <v>1529404.210425102</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4768,7 +4458,7 @@
         <v>1537965.583125102</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4801,7 +4491,7 @@
         <v>1531832.887325102</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4834,7 +4524,7 @@
         <v>1533173.900725102</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4867,7 +4557,7 @@
         <v>1533760.813725102</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4900,7 +4590,7 @@
         <v>1529731.692125102</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4933,7 +4623,7 @@
         <v>1535692.281525102</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4966,7 +4656,7 @@
         <v>1535692.281525102</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4999,7 +4689,7 @@
         <v>1535692.281525102</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5593,7 +5283,7 @@
         <v>1451903.903380564</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5626,7 +5316,7 @@
         <v>1451903.903380564</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5659,7 +5349,7 @@
         <v>1451903.903380564</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5692,7 +5382,7 @@
         <v>1441754.136480564</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5725,7 +5415,7 @@
         <v>1446570.462480564</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -12996,6 +12686,6 @@
       <c r="M362" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest ICX.xlsx
+++ b/BackTest/2019-11-18 BackTest ICX.xlsx
@@ -814,10 +814,14 @@
         <v>-10240.34751276596</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>192</v>
+      </c>
+      <c r="J13" t="n">
+        <v>192</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -853,9 +857,13 @@
         <v>191</v>
       </c>
       <c r="J14" t="n">
-        <v>191</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>192</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -890,11 +898,11 @@
         <v>192</v>
       </c>
       <c r="J15" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -931,11 +939,11 @@
         <v>192</v>
       </c>
       <c r="J16" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -972,9 +980,13 @@
         <v>191</v>
       </c>
       <c r="J17" t="n">
-        <v>191</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>192</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1009,11 +1021,11 @@
         <v>190</v>
       </c>
       <c r="J18" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1050,11 +1062,11 @@
         <v>191</v>
       </c>
       <c r="J19" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1091,9 +1103,13 @@
         <v>190</v>
       </c>
       <c r="J20" t="n">
-        <v>190</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>192</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1128,11 +1144,11 @@
         <v>192</v>
       </c>
       <c r="J21" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1169,11 +1185,11 @@
         <v>190</v>
       </c>
       <c r="J22" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1212,7 +1228,11 @@
       <c r="J23" t="n">
         <v>192</v>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1251,7 +1271,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1292,7 +1312,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1329,9 +1349,13 @@
         <v>191</v>
       </c>
       <c r="J26" t="n">
-        <v>191</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+        <v>192</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1366,11 +1390,11 @@
         <v>192</v>
       </c>
       <c r="J27" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1407,11 +1431,11 @@
         <v>191</v>
       </c>
       <c r="J28" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1448,7 +1472,7 @@
         <v>191</v>
       </c>
       <c r="J29" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1489,7 +1513,7 @@
         <v>190</v>
       </c>
       <c r="J30" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1530,7 +1554,7 @@
         <v>189</v>
       </c>
       <c r="J31" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1571,7 +1595,7 @@
         <v>190</v>
       </c>
       <c r="J32" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1612,7 +1636,7 @@
         <v>190</v>
       </c>
       <c r="J33" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1653,7 +1677,7 @@
         <v>190</v>
       </c>
       <c r="J34" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1694,7 +1718,7 @@
         <v>190</v>
       </c>
       <c r="J35" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1735,7 +1759,7 @@
         <v>192</v>
       </c>
       <c r="J36" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1776,7 +1800,7 @@
         <v>190</v>
       </c>
       <c r="J37" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1817,7 +1841,7 @@
         <v>190</v>
       </c>
       <c r="J38" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1858,7 +1882,7 @@
         <v>190</v>
       </c>
       <c r="J39" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1899,7 +1923,7 @@
         <v>190</v>
       </c>
       <c r="J40" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1940,7 +1964,7 @@
         <v>189</v>
       </c>
       <c r="J41" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1981,7 +2005,7 @@
         <v>190</v>
       </c>
       <c r="J42" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2022,7 +2046,7 @@
         <v>190</v>
       </c>
       <c r="J43" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2063,7 +2087,7 @@
         <v>190</v>
       </c>
       <c r="J44" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2104,7 +2128,7 @@
         <v>190</v>
       </c>
       <c r="J45" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2145,7 +2169,7 @@
         <v>189</v>
       </c>
       <c r="J46" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2186,7 +2210,7 @@
         <v>189</v>
       </c>
       <c r="J47" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2227,7 +2251,7 @@
         <v>188</v>
       </c>
       <c r="J48" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2268,7 +2292,7 @@
         <v>190</v>
       </c>
       <c r="J49" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2309,7 +2333,7 @@
         <v>190</v>
       </c>
       <c r="J50" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2350,7 +2374,7 @@
         <v>190</v>
       </c>
       <c r="J51" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2391,7 +2415,7 @@
         <v>190</v>
       </c>
       <c r="J52" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2432,7 +2456,7 @@
         <v>190</v>
       </c>
       <c r="J53" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2471,7 +2495,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2510,7 +2534,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2549,7 +2573,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2588,7 +2612,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2627,7 +2651,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2666,7 +2690,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2701,914 +2725,1076 @@
         <v>1092234.118749139</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>220</v>
+      </c>
+      <c r="C61" t="n">
+        <v>217</v>
+      </c>
+      <c r="D61" t="n">
+        <v>220</v>
+      </c>
+      <c r="E61" t="n">
+        <v>212</v>
+      </c>
+      <c r="F61" t="n">
+        <v>82120.4172</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1010113.701549139</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>192</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>217</v>
+      </c>
+      <c r="C62" t="n">
+        <v>217</v>
+      </c>
+      <c r="D62" t="n">
+        <v>218</v>
+      </c>
+      <c r="E62" t="n">
+        <v>215</v>
+      </c>
+      <c r="F62" t="n">
+        <v>33258.2084</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1010113.701549139</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>192</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>217</v>
+      </c>
+      <c r="C63" t="n">
+        <v>222</v>
+      </c>
+      <c r="D63" t="n">
+        <v>222</v>
+      </c>
+      <c r="E63" t="n">
+        <v>217</v>
+      </c>
+      <c r="F63" t="n">
+        <v>114843.4382</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1124957.139749139</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>192</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>223</v>
+      </c>
+      <c r="C64" t="n">
+        <v>224</v>
+      </c>
+      <c r="D64" t="n">
+        <v>226</v>
+      </c>
+      <c r="E64" t="n">
+        <v>219</v>
+      </c>
+      <c r="F64" t="n">
+        <v>96803.0436</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1221760.183349139</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>192</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>225</v>
+      </c>
+      <c r="C65" t="n">
+        <v>227</v>
+      </c>
+      <c r="D65" t="n">
+        <v>228</v>
+      </c>
+      <c r="E65" t="n">
+        <v>225</v>
+      </c>
+      <c r="F65" t="n">
+        <v>97187.2473877193</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1318947.430736858</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>192</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>226</v>
+      </c>
+      <c r="C66" t="n">
+        <v>220</v>
+      </c>
+      <c r="D66" t="n">
+        <v>226</v>
+      </c>
+      <c r="E66" t="n">
+        <v>218</v>
+      </c>
+      <c r="F66" t="n">
+        <v>63382.9767</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1255564.454036858</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>192</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>220</v>
+      </c>
+      <c r="C67" t="n">
+        <v>224</v>
+      </c>
+      <c r="D67" t="n">
+        <v>224</v>
+      </c>
+      <c r="E67" t="n">
+        <v>220</v>
+      </c>
+      <c r="F67" t="n">
+        <v>68310.7369</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1323875.190936858</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>192</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>223</v>
+      </c>
+      <c r="C68" t="n">
+        <v>221</v>
+      </c>
+      <c r="D68" t="n">
+        <v>223</v>
+      </c>
+      <c r="E68" t="n">
+        <v>219</v>
+      </c>
+      <c r="F68" t="n">
+        <v>22505.7455</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1301369.445436858</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>192</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>222</v>
+      </c>
+      <c r="C69" t="n">
+        <v>223</v>
+      </c>
+      <c r="D69" t="n">
+        <v>223</v>
+      </c>
+      <c r="E69" t="n">
+        <v>221</v>
+      </c>
+      <c r="F69" t="n">
+        <v>38735.3176</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1340104.763036858</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>192</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>222</v>
+      </c>
+      <c r="C70" t="n">
+        <v>222</v>
+      </c>
+      <c r="D70" t="n">
+        <v>222</v>
+      </c>
+      <c r="E70" t="n">
+        <v>220</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8828.7983</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1331275.964736858</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>192</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>221</v>
+      </c>
+      <c r="C71" t="n">
+        <v>220</v>
+      </c>
+      <c r="D71" t="n">
+        <v>221</v>
+      </c>
+      <c r="E71" t="n">
+        <v>219</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10202.9628</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1321073.001936858</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>192</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>222</v>
+      </c>
+      <c r="C72" t="n">
+        <v>220</v>
+      </c>
+      <c r="D72" t="n">
+        <v>222</v>
+      </c>
+      <c r="E72" t="n">
+        <v>219</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12289.2734</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1321073.001936858</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>192</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>220</v>
+      </c>
+      <c r="C73" t="n">
+        <v>221</v>
+      </c>
+      <c r="D73" t="n">
+        <v>221</v>
+      </c>
+      <c r="E73" t="n">
+        <v>219</v>
+      </c>
+      <c r="F73" t="n">
+        <v>21227.58</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1342300.581936858</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>192</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>221</v>
+      </c>
+      <c r="C74" t="n">
+        <v>220</v>
+      </c>
+      <c r="D74" t="n">
+        <v>221</v>
+      </c>
+      <c r="E74" t="n">
+        <v>220</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5643.1301</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1336657.451836858</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>192</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>220</v>
+      </c>
+      <c r="C75" t="n">
+        <v>220</v>
+      </c>
+      <c r="D75" t="n">
+        <v>220</v>
+      </c>
+      <c r="E75" t="n">
+        <v>220</v>
+      </c>
+      <c r="F75" t="n">
+        <v>115.8938</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1336657.451836858</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>192</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>220</v>
+      </c>
+      <c r="C76" t="n">
+        <v>215</v>
+      </c>
+      <c r="D76" t="n">
+        <v>220</v>
+      </c>
+      <c r="E76" t="n">
+        <v>215</v>
+      </c>
+      <c r="F76" t="n">
+        <v>29025.0256</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1307632.426236858</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>192</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>215</v>
+      </c>
+      <c r="C77" t="n">
+        <v>215</v>
+      </c>
+      <c r="D77" t="n">
+        <v>215</v>
+      </c>
+      <c r="E77" t="n">
+        <v>215</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3120.7374</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1307632.426236858</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>192</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>216</v>
+      </c>
+      <c r="C78" t="n">
+        <v>216</v>
+      </c>
+      <c r="D78" t="n">
+        <v>218</v>
+      </c>
+      <c r="E78" t="n">
+        <v>216</v>
+      </c>
+      <c r="F78" t="n">
+        <v>349.3164</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1307981.742636858</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>192</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>215</v>
+      </c>
+      <c r="C79" t="n">
+        <v>211</v>
+      </c>
+      <c r="D79" t="n">
+        <v>215</v>
+      </c>
+      <c r="E79" t="n">
+        <v>210</v>
+      </c>
+      <c r="F79" t="n">
+        <v>24087.6157</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1283894.126936858</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>192</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>210</v>
+      </c>
+      <c r="C80" t="n">
+        <v>214</v>
+      </c>
+      <c r="D80" t="n">
+        <v>214</v>
+      </c>
+      <c r="E80" t="n">
+        <v>210</v>
+      </c>
+      <c r="F80" t="n">
+        <v>40229.8459</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1324123.972836858</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>192</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>215</v>
+      </c>
+      <c r="C81" t="n">
+        <v>221</v>
+      </c>
+      <c r="D81" t="n">
+        <v>223</v>
+      </c>
+      <c r="E81" t="n">
+        <v>215</v>
+      </c>
+      <c r="F81" t="n">
+        <v>124225.5213713004</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1448349.494208158</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>192</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>220</v>
+      </c>
+      <c r="C82" t="n">
+        <v>225</v>
+      </c>
+      <c r="D82" t="n">
+        <v>225</v>
+      </c>
+      <c r="E82" t="n">
+        <v>219</v>
+      </c>
+      <c r="F82" t="n">
+        <v>51250.311149144</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1499599.805357303</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>192</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>225</v>
+      </c>
+      <c r="C83" t="n">
+        <v>222</v>
+      </c>
+      <c r="D83" t="n">
+        <v>226</v>
+      </c>
+      <c r="E83" t="n">
+        <v>222</v>
+      </c>
+      <c r="F83" t="n">
+        <v>40904.00165663717</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1458695.803700665</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>192</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>222</v>
+      </c>
+      <c r="C84" t="n">
+        <v>224</v>
+      </c>
+      <c r="D84" t="n">
+        <v>224</v>
+      </c>
+      <c r="E84" t="n">
+        <v>221</v>
+      </c>
+      <c r="F84" t="n">
+        <v>13218.7021</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1471914.505800666</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>192</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>225</v>
+      </c>
+      <c r="C85" t="n">
+        <v>226</v>
+      </c>
+      <c r="D85" t="n">
+        <v>227</v>
+      </c>
+      <c r="E85" t="n">
+        <v>224</v>
+      </c>
+      <c r="F85" t="n">
+        <v>25907.91182422908</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1497822.417624895</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>192</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>226</v>
+      </c>
+      <c r="C86" t="n">
+        <v>228</v>
+      </c>
+      <c r="D86" t="n">
+        <v>228</v>
+      </c>
+      <c r="E86" t="n">
+        <v>226</v>
+      </c>
+      <c r="F86" t="n">
+        <v>73096.71247577092</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1570919.130100666</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>192</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>229</v>
+      </c>
+      <c r="C87" t="n">
+        <v>222</v>
+      </c>
+      <c r="D87" t="n">
+        <v>229</v>
+      </c>
+      <c r="E87" t="n">
+        <v>222</v>
+      </c>
+      <c r="F87" t="n">
+        <v>82838.0542441048</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1488081.075856561</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>192</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1.136361256544503</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.026315789473684</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>220</v>
-      </c>
-      <c r="C61" t="n">
-        <v>217</v>
-      </c>
-      <c r="D61" t="n">
-        <v>220</v>
-      </c>
-      <c r="E61" t="n">
-        <v>212</v>
-      </c>
-      <c r="F61" t="n">
-        <v>82120.4172</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1010113.701549139</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>217</v>
-      </c>
-      <c r="C62" t="n">
-        <v>217</v>
-      </c>
-      <c r="D62" t="n">
-        <v>218</v>
-      </c>
-      <c r="E62" t="n">
-        <v>215</v>
-      </c>
-      <c r="F62" t="n">
-        <v>33258.2084</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1010113.701549139</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>217</v>
-      </c>
-      <c r="C63" t="n">
-        <v>222</v>
-      </c>
-      <c r="D63" t="n">
-        <v>222</v>
-      </c>
-      <c r="E63" t="n">
-        <v>217</v>
-      </c>
-      <c r="F63" t="n">
-        <v>114843.4382</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1124957.139749139</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>223</v>
-      </c>
-      <c r="C64" t="n">
-        <v>224</v>
-      </c>
-      <c r="D64" t="n">
-        <v>226</v>
-      </c>
-      <c r="E64" t="n">
-        <v>219</v>
-      </c>
-      <c r="F64" t="n">
-        <v>96803.0436</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1221760.183349139</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>225</v>
-      </c>
-      <c r="C65" t="n">
-        <v>227</v>
-      </c>
-      <c r="D65" t="n">
-        <v>228</v>
-      </c>
-      <c r="E65" t="n">
-        <v>225</v>
-      </c>
-      <c r="F65" t="n">
-        <v>97187.2473877193</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1318947.430736858</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>226</v>
-      </c>
-      <c r="C66" t="n">
-        <v>220</v>
-      </c>
-      <c r="D66" t="n">
-        <v>226</v>
-      </c>
-      <c r="E66" t="n">
-        <v>218</v>
-      </c>
-      <c r="F66" t="n">
-        <v>63382.9767</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1255564.454036858</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>220</v>
-      </c>
-      <c r="C67" t="n">
-        <v>224</v>
-      </c>
-      <c r="D67" t="n">
-        <v>224</v>
-      </c>
-      <c r="E67" t="n">
-        <v>220</v>
-      </c>
-      <c r="F67" t="n">
-        <v>68310.7369</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1323875.190936858</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>223</v>
-      </c>
-      <c r="C68" t="n">
-        <v>221</v>
-      </c>
-      <c r="D68" t="n">
-        <v>223</v>
-      </c>
-      <c r="E68" t="n">
-        <v>219</v>
-      </c>
-      <c r="F68" t="n">
-        <v>22505.7455</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1301369.445436858</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>222</v>
-      </c>
-      <c r="C69" t="n">
-        <v>223</v>
-      </c>
-      <c r="D69" t="n">
-        <v>223</v>
-      </c>
-      <c r="E69" t="n">
-        <v>221</v>
-      </c>
-      <c r="F69" t="n">
-        <v>38735.3176</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1340104.763036858</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>222</v>
-      </c>
-      <c r="C70" t="n">
-        <v>222</v>
-      </c>
-      <c r="D70" t="n">
-        <v>222</v>
-      </c>
-      <c r="E70" t="n">
-        <v>220</v>
-      </c>
-      <c r="F70" t="n">
-        <v>8828.7983</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1331275.964736858</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>221</v>
-      </c>
-      <c r="C71" t="n">
-        <v>220</v>
-      </c>
-      <c r="D71" t="n">
-        <v>221</v>
-      </c>
-      <c r="E71" t="n">
-        <v>219</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10202.9628</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1321073.001936858</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>222</v>
-      </c>
-      <c r="C72" t="n">
-        <v>220</v>
-      </c>
-      <c r="D72" t="n">
-        <v>222</v>
-      </c>
-      <c r="E72" t="n">
-        <v>219</v>
-      </c>
-      <c r="F72" t="n">
-        <v>12289.2734</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1321073.001936858</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>220</v>
-      </c>
-      <c r="C73" t="n">
-        <v>221</v>
-      </c>
-      <c r="D73" t="n">
-        <v>221</v>
-      </c>
-      <c r="E73" t="n">
-        <v>219</v>
-      </c>
-      <c r="F73" t="n">
-        <v>21227.58</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1342300.581936858</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>221</v>
-      </c>
-      <c r="C74" t="n">
-        <v>220</v>
-      </c>
-      <c r="D74" t="n">
-        <v>221</v>
-      </c>
-      <c r="E74" t="n">
-        <v>220</v>
-      </c>
-      <c r="F74" t="n">
-        <v>5643.1301</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1336657.451836858</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>220</v>
-      </c>
-      <c r="C75" t="n">
-        <v>220</v>
-      </c>
-      <c r="D75" t="n">
-        <v>220</v>
-      </c>
-      <c r="E75" t="n">
-        <v>220</v>
-      </c>
-      <c r="F75" t="n">
-        <v>115.8938</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1336657.451836858</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>220</v>
-      </c>
-      <c r="C76" t="n">
-        <v>215</v>
-      </c>
-      <c r="D76" t="n">
-        <v>220</v>
-      </c>
-      <c r="E76" t="n">
-        <v>215</v>
-      </c>
-      <c r="F76" t="n">
-        <v>29025.0256</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1307632.426236858</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>215</v>
-      </c>
-      <c r="C77" t="n">
-        <v>215</v>
-      </c>
-      <c r="D77" t="n">
-        <v>215</v>
-      </c>
-      <c r="E77" t="n">
-        <v>215</v>
-      </c>
-      <c r="F77" t="n">
-        <v>3120.7374</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1307632.426236858</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>216</v>
-      </c>
-      <c r="C78" t="n">
-        <v>216</v>
-      </c>
-      <c r="D78" t="n">
-        <v>218</v>
-      </c>
-      <c r="E78" t="n">
-        <v>216</v>
-      </c>
-      <c r="F78" t="n">
-        <v>349.3164</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1307981.742636858</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>215</v>
-      </c>
-      <c r="C79" t="n">
-        <v>211</v>
-      </c>
-      <c r="D79" t="n">
-        <v>215</v>
-      </c>
-      <c r="E79" t="n">
-        <v>210</v>
-      </c>
-      <c r="F79" t="n">
-        <v>24087.6157</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1283894.126936858</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>210</v>
-      </c>
-      <c r="C80" t="n">
-        <v>214</v>
-      </c>
-      <c r="D80" t="n">
-        <v>214</v>
-      </c>
-      <c r="E80" t="n">
-        <v>210</v>
-      </c>
-      <c r="F80" t="n">
-        <v>40229.8459</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1324123.972836858</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>215</v>
-      </c>
-      <c r="C81" t="n">
-        <v>221</v>
-      </c>
-      <c r="D81" t="n">
-        <v>223</v>
-      </c>
-      <c r="E81" t="n">
-        <v>215</v>
-      </c>
-      <c r="F81" t="n">
-        <v>124225.5213713004</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1448349.494208158</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>220</v>
-      </c>
-      <c r="C82" t="n">
-        <v>225</v>
-      </c>
-      <c r="D82" t="n">
-        <v>225</v>
-      </c>
-      <c r="E82" t="n">
-        <v>219</v>
-      </c>
-      <c r="F82" t="n">
-        <v>51250.311149144</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1499599.805357303</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>225</v>
-      </c>
-      <c r="C83" t="n">
-        <v>222</v>
-      </c>
-      <c r="D83" t="n">
-        <v>226</v>
-      </c>
-      <c r="E83" t="n">
-        <v>222</v>
-      </c>
-      <c r="F83" t="n">
-        <v>40904.00165663717</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1458695.803700665</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>222</v>
-      </c>
-      <c r="C84" t="n">
-        <v>224</v>
-      </c>
-      <c r="D84" t="n">
-        <v>224</v>
-      </c>
-      <c r="E84" t="n">
-        <v>221</v>
-      </c>
-      <c r="F84" t="n">
-        <v>13218.7021</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1471914.505800666</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>225</v>
-      </c>
-      <c r="C85" t="n">
-        <v>226</v>
-      </c>
-      <c r="D85" t="n">
-        <v>227</v>
-      </c>
-      <c r="E85" t="n">
-        <v>224</v>
-      </c>
-      <c r="F85" t="n">
-        <v>25907.91182422908</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1497822.417624895</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>226</v>
-      </c>
-      <c r="C86" t="n">
-        <v>228</v>
-      </c>
-      <c r="D86" t="n">
-        <v>228</v>
-      </c>
-      <c r="E86" t="n">
-        <v>226</v>
-      </c>
-      <c r="F86" t="n">
-        <v>73096.71247577092</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1570919.130100666</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>229</v>
-      </c>
-      <c r="C87" t="n">
-        <v>222</v>
-      </c>
-      <c r="D87" t="n">
-        <v>229</v>
-      </c>
-      <c r="E87" t="n">
-        <v>222</v>
-      </c>
-      <c r="F87" t="n">
-        <v>82838.0542441048</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1488081.075856561</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>1.15125</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.020942408376963</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3699,7 +3885,7 @@
         <v>1781495.357912456</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3732,7 +3918,7 @@
         <v>1717758.389412456</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3765,7 +3951,7 @@
         <v>1711988.959412456</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3798,7 +3984,7 @@
         <v>1759931.332712456</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3831,7 +4017,7 @@
         <v>1703159.526139924</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3864,7 +4050,7 @@
         <v>1696185.636539924</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3897,7 +4083,7 @@
         <v>1707685.517222818</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4128,7 +4314,7 @@
         <v>1719667.911922819</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4260,7 +4446,7 @@
         <v>1561476.282822819</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4293,7 +4479,7 @@
         <v>1560187.818222819</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4392,7 +4578,7 @@
         <v>1529404.210425102</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
